--- a/Code/Results/Cases/Case_0_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_line/loading_percent.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.18138096509985</v>
+        <v>8.181380965099882</v>
       </c>
       <c r="D2">
-        <v>6.822306310927771</v>
+        <v>6.822306310927766</v>
       </c>
       <c r="E2">
-        <v>34.34864755248926</v>
+        <v>34.34864755248934</v>
       </c>
       <c r="F2">
-        <v>47.65581115681223</v>
+        <v>47.65581115681246</v>
       </c>
       <c r="G2">
-        <v>38.28922230278221</v>
+        <v>38.28922230278237</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.450701105944378</v>
+        <v>7.450701105944542</v>
       </c>
       <c r="D3">
-        <v>5.78284084054239</v>
+        <v>5.782840840542329</v>
       </c>
       <c r="E3">
-        <v>31.02175962772574</v>
+        <v>31.02175962772572</v>
       </c>
       <c r="F3">
-        <v>41.79370382453038</v>
+        <v>41.79370382453025</v>
       </c>
       <c r="G3">
-        <v>33.4450237634673</v>
+        <v>33.44502376346718</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>96.22828022258417</v>
+        <v>96.22828022258396</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.006551572872747</v>
+        <v>7.006551572872698</v>
       </c>
       <c r="D4">
-        <v>5.191194553491056</v>
+        <v>5.191194553491228</v>
       </c>
       <c r="E4">
-        <v>29.04196811365852</v>
+        <v>29.04196811365855</v>
       </c>
       <c r="F4">
-        <v>38.41705480285086</v>
+        <v>38.41705480285091</v>
       </c>
       <c r="G4">
-        <v>30.65481254115817</v>
+        <v>30.65481254115828</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>90.98271487325736</v>
+        <v>90.98271487325754</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.825162866318828</v>
+        <v>6.825162866318757</v>
       </c>
       <c r="D5">
-        <v>4.957968447685469</v>
+        <v>4.957968447685341</v>
       </c>
       <c r="E5">
-        <v>28.2413843937889</v>
+        <v>28.24138439378886</v>
       </c>
       <c r="F5">
-        <v>37.07905495269193</v>
+        <v>37.07905495269187</v>
       </c>
       <c r="G5">
-        <v>29.5488779011145</v>
+        <v>29.54887790111442</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.794985172725034</v>
+        <v>6.794985172725025</v>
       </c>
       <c r="D6">
-        <v>4.919631103873487</v>
+        <v>4.91963110387336</v>
       </c>
       <c r="E6">
-        <v>28.10860895125679</v>
+        <v>28.10860895125677</v>
       </c>
       <c r="F6">
-        <v>36.85878407280768</v>
+        <v>36.85878407280757</v>
       </c>
       <c r="G6">
-        <v>29.36678291715271</v>
+        <v>29.36678291715261</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>88.45889852392362</v>
+        <v>88.45889852392339</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.004108510484613</v>
+        <v>7.004108510484659</v>
       </c>
       <c r="D7">
-        <v>5.188021332767406</v>
+        <v>5.188021332767592</v>
       </c>
       <c r="E7">
-        <v>29.03115609397899</v>
+        <v>29.03115609397908</v>
       </c>
       <c r="F7">
-        <v>38.39887467478925</v>
+        <v>38.39887467478898</v>
       </c>
       <c r="G7">
-        <v>30.63978731375683</v>
+        <v>30.63978731375668</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>90.95366219561501</v>
+        <v>90.953662195615</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.927380751037625</v>
+        <v>7.927380751037541</v>
       </c>
       <c r="D8">
-        <v>6.451361521054954</v>
+        <v>6.451361521054687</v>
       </c>
       <c r="E8">
-        <v>33.18123364221277</v>
+        <v>33.18123364221258</v>
       </c>
       <c r="F8">
-        <v>45.57473006753294</v>
+        <v>45.57473006753199</v>
       </c>
       <c r="G8">
-        <v>36.5692553531612</v>
+        <v>36.56925535316041</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>101.7749188266477</v>
+        <v>101.7749188266472</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D9">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E9">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F9">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G9">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D10">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E10">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F10">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G10">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D11">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E11">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F11">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G11">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D12">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E12">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F12">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G12">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D13">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E13">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F13">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G13">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D14">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E14">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F14">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G14">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D15">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E15">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F15">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G15">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D16">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E16">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F16">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G16">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D17">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E17">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F17">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G17">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D18">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E18">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F18">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G18">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D19">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E19">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F19">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G19">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D20">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E20">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F20">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G20">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D21">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E21">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F21">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G21">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D22">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E22">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F22">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G22">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D23">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E23">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F23">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G23">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D24">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E24">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F24">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G24">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.906822925573007</v>
+        <v>9.906822925573064</v>
       </c>
       <c r="D25">
-        <v>9.641293261245885</v>
+        <v>9.641293261245814</v>
       </c>
       <c r="E25">
-        <v>42.70557384511924</v>
+        <v>42.70557384511914</v>
       </c>
       <c r="F25">
-        <v>63.06006832496649</v>
+        <v>63.06006832496634</v>
       </c>
       <c r="G25">
-        <v>51.04197308311917</v>
+        <v>51.04197308311903</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>123.7500827259671</v>
+        <v>123.7500827259672</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_line/loading_percent.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.181380965099882</v>
+        <v>8.18138096509985</v>
       </c>
       <c r="D2">
-        <v>6.822306310927766</v>
+        <v>6.822306310927771</v>
       </c>
       <c r="E2">
-        <v>34.34864755248934</v>
+        <v>34.34864755248926</v>
       </c>
       <c r="F2">
-        <v>47.65581115681246</v>
+        <v>47.65581115681223</v>
       </c>
       <c r="G2">
-        <v>38.28922230278237</v>
+        <v>38.28922230278221</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.450701105944542</v>
+        <v>7.450701105944378</v>
       </c>
       <c r="D3">
-        <v>5.782840840542329</v>
+        <v>5.78284084054239</v>
       </c>
       <c r="E3">
-        <v>31.02175962772572</v>
+        <v>31.02175962772574</v>
       </c>
       <c r="F3">
-        <v>41.79370382453025</v>
+        <v>41.79370382453038</v>
       </c>
       <c r="G3">
-        <v>33.44502376346718</v>
+        <v>33.4450237634673</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>96.22828022258396</v>
+        <v>96.22828022258417</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.006551572872698</v>
+        <v>7.006551572872747</v>
       </c>
       <c r="D4">
-        <v>5.191194553491228</v>
+        <v>5.191194553491056</v>
       </c>
       <c r="E4">
-        <v>29.04196811365855</v>
+        <v>29.04196811365852</v>
       </c>
       <c r="F4">
-        <v>38.41705480285091</v>
+        <v>38.41705480285086</v>
       </c>
       <c r="G4">
-        <v>30.65481254115828</v>
+        <v>30.65481254115817</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>90.98271487325754</v>
+        <v>90.98271487325736</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.825162866318757</v>
+        <v>6.825162866318828</v>
       </c>
       <c r="D5">
-        <v>4.957968447685341</v>
+        <v>4.957968447685469</v>
       </c>
       <c r="E5">
-        <v>28.24138439378886</v>
+        <v>28.2413843937889</v>
       </c>
       <c r="F5">
-        <v>37.07905495269187</v>
+        <v>37.07905495269193</v>
       </c>
       <c r="G5">
-        <v>29.54887790111442</v>
+        <v>29.5488779011145</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.794985172725025</v>
+        <v>6.794985172725034</v>
       </c>
       <c r="D6">
-        <v>4.91963110387336</v>
+        <v>4.919631103873487</v>
       </c>
       <c r="E6">
-        <v>28.10860895125677</v>
+        <v>28.10860895125679</v>
       </c>
       <c r="F6">
-        <v>36.85878407280757</v>
+        <v>36.85878407280768</v>
       </c>
       <c r="G6">
-        <v>29.36678291715261</v>
+        <v>29.36678291715271</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>88.45889852392339</v>
+        <v>88.45889852392362</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.004108510484659</v>
+        <v>7.004108510484613</v>
       </c>
       <c r="D7">
-        <v>5.188021332767592</v>
+        <v>5.188021332767406</v>
       </c>
       <c r="E7">
-        <v>29.03115609397908</v>
+        <v>29.03115609397899</v>
       </c>
       <c r="F7">
-        <v>38.39887467478898</v>
+        <v>38.39887467478925</v>
       </c>
       <c r="G7">
-        <v>30.63978731375668</v>
+        <v>30.63978731375683</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>90.953662195615</v>
+        <v>90.95366219561501</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.927380751037541</v>
+        <v>7.927380751037625</v>
       </c>
       <c r="D8">
-        <v>6.451361521054687</v>
+        <v>6.451361521054954</v>
       </c>
       <c r="E8">
-        <v>33.18123364221258</v>
+        <v>33.18123364221277</v>
       </c>
       <c r="F8">
-        <v>45.57473006753199</v>
+        <v>45.57473006753294</v>
       </c>
       <c r="G8">
-        <v>36.56925535316041</v>
+        <v>36.5692553531612</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>101.7749188266472</v>
+        <v>101.7749188266477</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D9">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E9">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F9">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G9">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D10">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E10">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F10">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G10">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D11">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E11">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F11">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G11">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D12">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E12">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F12">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G12">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D13">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E13">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F13">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G13">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D14">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E14">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F14">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G14">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D15">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E15">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F15">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G15">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D16">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E16">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F16">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G16">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D17">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E17">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F17">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G17">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D18">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E18">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F18">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G18">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D19">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E19">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F19">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G19">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D20">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E20">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F20">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G20">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D21">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E21">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F21">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G21">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D22">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E22">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F22">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G22">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D23">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E23">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F23">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G23">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D24">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E24">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F24">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G24">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.906822925573064</v>
+        <v>9.906822925573007</v>
       </c>
       <c r="D25">
-        <v>9.641293261245814</v>
+        <v>9.641293261245885</v>
       </c>
       <c r="E25">
-        <v>42.70557384511914</v>
+        <v>42.70557384511924</v>
       </c>
       <c r="F25">
-        <v>63.06006832496634</v>
+        <v>63.06006832496649</v>
       </c>
       <c r="G25">
-        <v>51.04197308311903</v>
+        <v>51.04197308311917</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>123.7500827259672</v>
+        <v>123.7500827259671</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.18138096509985</v>
+        <v>8.179834652281231</v>
       </c>
       <c r="D2">
-        <v>6.822306310927771</v>
+        <v>6.811372681818495</v>
       </c>
       <c r="E2">
-        <v>34.34864755248926</v>
+        <v>34.34115242974637</v>
       </c>
       <c r="F2">
-        <v>47.65581115681223</v>
+        <v>47.5995639156657</v>
       </c>
       <c r="G2">
-        <v>38.28922230278221</v>
+        <v>38.33315424124325</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>37.3518078293239</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>104.6935405217245</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>104.6785554520828</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.450701105944378</v>
+        <v>7.449648647115141</v>
       </c>
       <c r="D3">
-        <v>5.78284084054239</v>
+        <v>5.774003738556241</v>
       </c>
       <c r="E3">
-        <v>31.02175962772574</v>
+        <v>31.01682738821675</v>
       </c>
       <c r="F3">
-        <v>41.79370382453038</v>
+        <v>41.74691002829419</v>
       </c>
       <c r="G3">
-        <v>33.4450237634673</v>
+        <v>33.48527061367581</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>32.5893979293011</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>96.22828022258417</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>96.21781264427702</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.006551572872747</v>
+        <v>7.005726810592352</v>
       </c>
       <c r="D4">
-        <v>5.191194553491056</v>
+        <v>5.183437003192054</v>
       </c>
       <c r="E4">
-        <v>29.04196811365852</v>
+        <v>29.03817101099603</v>
       </c>
       <c r="F4">
-        <v>38.41705480285086</v>
+        <v>38.37506790578394</v>
       </c>
       <c r="G4">
-        <v>30.65481254115817</v>
+        <v>30.69243570080694</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>29.86187279928675</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>90.98271487325736</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>90.97437145032781</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.825162866318828</v>
+        <v>6.824418707733135</v>
       </c>
       <c r="D5">
-        <v>4.957968447685469</v>
+        <v>4.950618010160302</v>
       </c>
       <c r="E5">
-        <v>28.2413843937889</v>
+        <v>28.23798143347534</v>
       </c>
       <c r="F5">
-        <v>37.07905495269193</v>
+        <v>37.03886841128796</v>
       </c>
       <c r="G5">
-        <v>29.5488779011145</v>
+        <v>29.5853821161076</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>28.78496820838463</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>88.81986384901855</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>88.81228086940773</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.794985172725034</v>
+        <v>6.794253798579068</v>
       </c>
       <c r="D6">
-        <v>4.919631103873487</v>
+        <v>4.912346675090991</v>
       </c>
       <c r="E6">
-        <v>28.10860895125679</v>
+        <v>28.1052681196042</v>
       </c>
       <c r="F6">
-        <v>36.85878407280768</v>
+        <v>36.81888875858647</v>
       </c>
       <c r="G6">
-        <v>29.36678291715271</v>
+        <v>29.40309908685917</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>28.60791542879297</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>88.45889852392362</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>88.45143663252938</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.004108510484613</v>
+        <v>7.003284878108504</v>
       </c>
       <c r="D7">
-        <v>5.188021332767406</v>
+        <v>5.180269387248724</v>
       </c>
       <c r="E7">
-        <v>29.03115609397899</v>
+        <v>29.027364545039</v>
       </c>
       <c r="F7">
-        <v>38.39887467478925</v>
+        <v>38.35691261157741</v>
       </c>
       <c r="G7">
-        <v>30.63978731375683</v>
+        <v>30.67739554800861</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>29.84722446906495</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>90.95366219561501</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>90.94532939851302</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.927380751037625</v>
+        <v>7.926025916042049</v>
       </c>
       <c r="D8">
-        <v>6.451361521054954</v>
+        <v>6.441209583821669</v>
       </c>
       <c r="E8">
-        <v>33.18123364221277</v>
+        <v>33.17474773795179</v>
       </c>
       <c r="F8">
-        <v>45.57473006753294</v>
+        <v>45.52202410572888</v>
       </c>
       <c r="G8">
-        <v>36.5692553531612</v>
+        <v>36.61202664471567</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>35.65765085761213</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>101.7749188266477</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>101.7616732375768</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D9">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E9">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F9">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G9">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D10">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E10">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F10">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G10">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D11">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E11">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F11">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G11">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D12">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E12">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F12">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G12">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D13">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E13">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F13">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G13">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D14">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E14">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F14">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G14">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D15">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E15">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F15">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G15">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D16">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E16">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F16">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G16">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D17">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E17">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F17">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G17">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D18">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E18">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F18">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G18">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D19">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E19">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F19">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G19">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D20">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E20">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F20">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G20">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D21">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E21">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F21">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G21">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D22">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E22">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F22">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G22">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D23">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E23">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F23">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G23">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D24">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E24">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F24">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G24">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.906822925573007</v>
+        <v>9.902975859897593</v>
       </c>
       <c r="D25">
-        <v>9.641293261245885</v>
+        <v>9.6223904496927</v>
       </c>
       <c r="E25">
-        <v>42.70557384511924</v>
+        <v>42.6846961883518</v>
       </c>
       <c r="F25">
-        <v>63.06006832496649</v>
+        <v>62.96695777830734</v>
       </c>
       <c r="G25">
-        <v>51.04197308311917</v>
+        <v>51.08576900840922</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>49.9800059322147</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>123.7500827259671</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>123.7148594249891</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>10.31757340786199</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.511897201973157</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8.931224584304413</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>33.96424110675205</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>45.09514224081664</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>13.85269815552427</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.611341105462961</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.87459833504401</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.349754237388266</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>12.82908027749381</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>9.923845214937703</v>
+      </c>
+      <c r="D3">
+        <v>4.364631169706254</v>
+      </c>
+      <c r="E3">
+        <v>8.755949043879408</v>
+      </c>
+      <c r="F3">
+        <v>33.18000859227425</v>
+      </c>
+      <c r="G3">
+        <v>43.80125231897016</v>
+      </c>
+      <c r="H3">
+        <v>13.74377529319983</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>6.610090291090503</v>
+      </c>
+      <c r="K3">
+        <v>21.50965455237063</v>
+      </c>
+      <c r="L3">
+        <v>5.354913680781726</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>13.08440823510384</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>9.681693642787472</v>
+      </c>
+      <c r="D4">
+        <v>4.272945927885462</v>
+      </c>
+      <c r="E4">
+        <v>8.651679262212381</v>
+      </c>
+      <c r="F4">
+        <v>32.72634549307332</v>
+      </c>
+      <c r="G4">
+        <v>43.04538087017792</v>
+      </c>
+      <c r="H4">
+        <v>13.68955413067918</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>6.612748506168153</v>
+      </c>
+      <c r="K4">
+        <v>20.63862737921895</v>
+      </c>
+      <c r="L4">
+        <v>5.359671733288757</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.2438484904679</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>9.583032918630082</v>
+      </c>
+      <c r="D5">
+        <v>4.235311976894347</v>
+      </c>
+      <c r="E5">
+        <v>8.610051734102603</v>
+      </c>
+      <c r="F5">
+        <v>32.54842423750083</v>
+      </c>
+      <c r="G5">
+        <v>42.74708758103614</v>
+      </c>
+      <c r="H5">
+        <v>13.67051107831396</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>6.614665348962339</v>
+      </c>
+      <c r="K5">
+        <v>20.27562526249786</v>
+      </c>
+      <c r="L5">
+        <v>5.362005149246602</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.30953776869045</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>9.566655200415592</v>
+      </c>
+      <c r="D6">
+        <v>4.229047928494931</v>
+      </c>
+      <c r="E6">
+        <v>8.603192256321201</v>
+      </c>
+      <c r="F6">
+        <v>32.51929840297224</v>
+      </c>
+      <c r="G6">
+        <v>42.698144343463</v>
+      </c>
+      <c r="H6">
+        <v>13.66752951619263</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>6.615033188219469</v>
+      </c>
+      <c r="K6">
+        <v>20.2148709836349</v>
+      </c>
+      <c r="L6">
+        <v>5.36241628284638</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.320489945784</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>9.680362829949626</v>
+      </c>
+      <c r="D7">
+        <v>4.272439418123893</v>
+      </c>
+      <c r="E7">
+        <v>8.651114336145618</v>
+      </c>
+      <c r="F7">
+        <v>32.72391792784129</v>
+      </c>
+      <c r="G7">
+        <v>43.04131856047611</v>
+      </c>
+      <c r="H7">
+        <v>13.6892851232891</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>6.612771018366427</v>
+      </c>
+      <c r="K7">
+        <v>20.63376404499287</v>
+      </c>
+      <c r="L7">
+        <v>5.359701612304138</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.24473144173936</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>10.18196601006203</v>
+      </c>
+      <c r="D8">
+        <v>4.461408372943365</v>
+      </c>
+      <c r="E8">
+        <v>8.870106704296971</v>
+      </c>
+      <c r="F8">
+        <v>33.6880262031486</v>
+      </c>
+      <c r="G8">
+        <v>44.6410226488156</v>
+      </c>
+      <c r="H8">
+        <v>13.81243636320029</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>6.61018156665932</v>
+      </c>
+      <c r="K8">
+        <v>22.41092185654743</v>
+      </c>
+      <c r="L8">
+        <v>5.351199871723293</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12.91659173658585</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>11.15799948639063</v>
+      </c>
+      <c r="D9">
+        <v>4.820166834839033</v>
+      </c>
+      <c r="E9">
+        <v>9.325268228064381</v>
+      </c>
+      <c r="F9">
+        <v>35.80181496396005</v>
+      </c>
+      <c r="G9">
+        <v>48.08276649650686</v>
+      </c>
+      <c r="H9">
+        <v>14.16014973201293</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>6.633603579644226</v>
+      </c>
+      <c r="K9">
+        <v>25.62773407903304</v>
+      </c>
+      <c r="L9">
+        <v>5.347401061428091</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>12.2920819115979</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>11.86578316499094</v>
+      </c>
+      <c r="D10">
+        <v>5.074521638778304</v>
+      </c>
+      <c r="E10">
+        <v>9.674379227471604</v>
+      </c>
+      <c r="F10">
+        <v>37.49412362140745</v>
+      </c>
+      <c r="G10">
+        <v>50.79664768306503</v>
+      </c>
+      <c r="H10">
+        <v>14.48827265009336</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>6.670102885802394</v>
+      </c>
+      <c r="K10">
+        <v>27.98060923393778</v>
+      </c>
+      <c r="L10">
+        <v>5.352837249402898</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>11.84150765248656</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>12.18514194458895</v>
+      </c>
+      <c r="D11">
+        <v>5.187908403293811</v>
+      </c>
+      <c r="E11">
+        <v>9.83625959394459</v>
+      </c>
+      <c r="F11">
+        <v>38.29523185013189</v>
+      </c>
+      <c r="G11">
+        <v>52.07209132519282</v>
+      </c>
+      <c r="H11">
+        <v>14.65504075240399</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>6.691347751993687</v>
+      </c>
+      <c r="K11">
+        <v>29.03256545271729</v>
+      </c>
+      <c r="L11">
+        <v>5.357187718701086</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>11.63751493676814</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>12.30567344385553</v>
+      </c>
+      <c r="D12">
+        <v>5.230491373930716</v>
+      </c>
+      <c r="E12">
+        <v>9.897996061814148</v>
+      </c>
+      <c r="F12">
+        <v>38.60320139211093</v>
+      </c>
+      <c r="G12">
+        <v>52.56106952982286</v>
+      </c>
+      <c r="H12">
+        <v>14.72085396253253</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>6.700100456268212</v>
+      </c>
+      <c r="K12">
+        <v>29.42409268337413</v>
+      </c>
+      <c r="L12">
+        <v>5.359113348207803</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11.56033516957315</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>12.27973294748599</v>
+      </c>
+      <c r="D13">
+        <v>5.221336388623967</v>
+      </c>
+      <c r="E13">
+        <v>9.884680634276085</v>
+      </c>
+      <c r="F13">
+        <v>38.53666753238887</v>
+      </c>
+      <c r="G13">
+        <v>52.45548999744791</v>
+      </c>
+      <c r="H13">
+        <v>14.70655915458614</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>6.698183252920292</v>
+      </c>
+      <c r="K13">
+        <v>29.34007051318371</v>
+      </c>
+      <c r="L13">
+        <v>5.358686117645843</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>11.57695542011574</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>12.19506629513167</v>
+      </c>
+      <c r="D14">
+        <v>5.191418925575006</v>
+      </c>
+      <c r="E14">
+        <v>9.841329960739644</v>
+      </c>
+      <c r="F14">
+        <v>38.32047557512277</v>
+      </c>
+      <c r="G14">
+        <v>52.11219875964896</v>
+      </c>
+      <c r="H14">
+        <v>14.66040104773693</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>6.692053416235081</v>
+      </c>
+      <c r="K14">
+        <v>29.06491223259706</v>
+      </c>
+      <c r="L14">
+        <v>5.357340516155165</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>11.6311643895491</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>12.1431526342175</v>
+      </c>
+      <c r="D15">
+        <v>5.173046980346147</v>
+      </c>
+      <c r="E15">
+        <v>9.814833144232304</v>
+      </c>
+      <c r="F15">
+        <v>38.18865572868005</v>
+      </c>
+      <c r="G15">
+        <v>51.90270849410601</v>
+      </c>
+      <c r="H15">
+        <v>14.63247891494129</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>6.688392131275084</v>
+      </c>
+      <c r="K15">
+        <v>28.89548710695316</v>
+      </c>
+      <c r="L15">
+        <v>5.356552782693378</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11.66437552214536</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>11.84485694847537</v>
+      </c>
+      <c r="D16">
+        <v>5.067062983330048</v>
+      </c>
+      <c r="E16">
+        <v>9.663861099939821</v>
+      </c>
+      <c r="F16">
+        <v>37.44240711984633</v>
+      </c>
+      <c r="G16">
+        <v>50.714125389471</v>
+      </c>
+      <c r="H16">
+        <v>14.47773841963648</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>6.668811256788447</v>
+      </c>
+      <c r="K16">
+        <v>27.91089511490512</v>
+      </c>
+      <c r="L16">
+        <v>5.35259140262587</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>11.85485264262882</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>11.66116697395646</v>
+      </c>
+      <c r="D17">
+        <v>5.001434665703395</v>
+      </c>
+      <c r="E17">
+        <v>9.572024648191558</v>
+      </c>
+      <c r="F17">
+        <v>36.99268353222064</v>
+      </c>
+      <c r="G17">
+        <v>49.995499568319</v>
+      </c>
+      <c r="H17">
+        <v>14.38739444868909</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>6.658015521062927</v>
+      </c>
+      <c r="K17">
+        <v>27.29450648039029</v>
+      </c>
+      <c r="L17">
+        <v>5.350647727645606</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>11.97190454196277</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>11.55526751294225</v>
+      </c>
+      <c r="D18">
+        <v>4.963469464271739</v>
+      </c>
+      <c r="E18">
+        <v>9.519491482070197</v>
+      </c>
+      <c r="F18">
+        <v>36.73694895105503</v>
+      </c>
+      <c r="G18">
+        <v>49.58600237301841</v>
+      </c>
+      <c r="H18">
+        <v>14.33706956336933</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>6.652240368062859</v>
+      </c>
+      <c r="K18">
+        <v>26.935367426309</v>
+      </c>
+      <c r="L18">
+        <v>5.349705967323048</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>12.03932624717329</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>11.51937069174174</v>
+      </c>
+      <c r="D19">
+        <v>4.95057844836684</v>
+      </c>
+      <c r="E19">
+        <v>9.501754511189342</v>
+      </c>
+      <c r="F19">
+        <v>36.65086286097259</v>
+      </c>
+      <c r="G19">
+        <v>49.44801039071247</v>
+      </c>
+      <c r="H19">
+        <v>14.32030752851189</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>6.650358404976589</v>
+      </c>
+      <c r="K19">
+        <v>26.8129719962586</v>
+      </c>
+      <c r="L19">
+        <v>5.349417125394164</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>12.06217276483242</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>11.68074678660118</v>
+      </c>
+      <c r="D20">
+        <v>5.008443590533459</v>
+      </c>
+      <c r="E20">
+        <v>9.581770971832309</v>
+      </c>
+      <c r="F20">
+        <v>37.04025298309769</v>
+      </c>
+      <c r="G20">
+        <v>50.07160075804135</v>
+      </c>
+      <c r="H20">
+        <v>14.3968411018981</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>6.65911951762102</v>
+      </c>
+      <c r="K20">
+        <v>27.36059773432454</v>
+      </c>
+      <c r="L20">
+        <v>5.350836342916838</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>11.95943467954932</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>12.21994598466451</v>
+      </c>
+      <c r="D21">
+        <v>5.200216157462997</v>
+      </c>
+      <c r="E21">
+        <v>9.854051283170264</v>
+      </c>
+      <c r="F21">
+        <v>38.38385027059388</v>
+      </c>
+      <c r="G21">
+        <v>52.21286769554337</v>
+      </c>
+      <c r="H21">
+        <v>14.67388537848698</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>6.693834353473988</v>
+      </c>
+      <c r="K21">
+        <v>29.14591646956472</v>
+      </c>
+      <c r="L21">
+        <v>5.35772813250377</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>11.61524066992411</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>12.56999861818527</v>
+      </c>
+      <c r="D22">
+        <v>5.323480723816405</v>
+      </c>
+      <c r="E22">
+        <v>10.0345455216475</v>
+      </c>
+      <c r="F22">
+        <v>39.28890587612029</v>
+      </c>
+      <c r="G22">
+        <v>53.64736763773706</v>
+      </c>
+      <c r="H22">
+        <v>14.87053681044233</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>6.720668737242209</v>
+      </c>
+      <c r="K22">
+        <v>30.27304711746285</v>
+      </c>
+      <c r="L22">
+        <v>5.36385825014115</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>11.39064697595309</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>12.3833870044792</v>
+      </c>
+      <c r="D23">
+        <v>5.257886877954596</v>
+      </c>
+      <c r="E23">
+        <v>9.937979565265215</v>
+      </c>
+      <c r="F23">
+        <v>38.80334826893142</v>
+      </c>
+      <c r="G23">
+        <v>52.8784809235758</v>
+      </c>
+      <c r="H23">
+        <v>14.76410442096366</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>6.70595319102104</v>
+      </c>
+      <c r="K23">
+        <v>29.67503629200473</v>
+      </c>
+      <c r="L23">
+        <v>5.360434805530735</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>11.51050988106731</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>11.67189566567133</v>
+      </c>
+      <c r="D24">
+        <v>5.005275584750655</v>
+      </c>
+      <c r="E24">
+        <v>9.57736383351887</v>
+      </c>
+      <c r="F24">
+        <v>37.01873806626899</v>
+      </c>
+      <c r="G24">
+        <v>50.03718404777988</v>
+      </c>
+      <c r="H24">
+        <v>14.39256525027885</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>6.658619059891251</v>
+      </c>
+      <c r="K24">
+        <v>27.33073274731639</v>
+      </c>
+      <c r="L24">
+        <v>5.350750523347497</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>11.96507190334829</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>10.89532051268514</v>
+      </c>
+      <c r="D25">
+        <v>4.724606114963743</v>
+      </c>
+      <c r="E25">
+        <v>9.199492528483814</v>
+      </c>
+      <c r="F25">
+        <v>35.20577469545474</v>
+      </c>
+      <c r="G25">
+        <v>47.11919934733761</v>
+      </c>
+      <c r="H25">
+        <v>14.05389739097879</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>6.624024693452172</v>
+      </c>
+      <c r="K25">
+        <v>24.7869116410406</v>
+      </c>
+      <c r="L25">
+        <v>5.347012885820503</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.45932374616359</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.31757340786199</v>
+        <v>13.55515853391561</v>
       </c>
       <c r="D2">
-        <v>4.511897201973157</v>
+        <v>6.97220236164387</v>
       </c>
       <c r="E2">
-        <v>8.931224584304413</v>
+        <v>14.04951337151429</v>
       </c>
       <c r="F2">
-        <v>33.96424110675205</v>
+        <v>47.74122866356787</v>
       </c>
       <c r="G2">
-        <v>45.09514224081664</v>
+        <v>59.106604376296</v>
       </c>
       <c r="H2">
-        <v>13.85269815552427</v>
+        <v>21.80101371632457</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.611341105462961</v>
+        <v>11.46046838249002</v>
       </c>
       <c r="K2">
-        <v>22.87459833504401</v>
+        <v>22.81863010871817</v>
       </c>
       <c r="L2">
-        <v>5.349754237388266</v>
+        <v>9.602360798723558</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.82908027749381</v>
+        <v>19.73979972027498</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.923845214937703</v>
+        <v>13.5201211848966</v>
       </c>
       <c r="D3">
-        <v>4.364631169706254</v>
+        <v>6.956957751958257</v>
       </c>
       <c r="E3">
-        <v>8.755949043879408</v>
+        <v>14.05550274076704</v>
       </c>
       <c r="F3">
-        <v>33.18000859227425</v>
+        <v>47.78497829900547</v>
       </c>
       <c r="G3">
-        <v>43.80125231897016</v>
+        <v>59.11881434495974</v>
       </c>
       <c r="H3">
-        <v>13.74377529319983</v>
+        <v>21.85604509383138</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.610090291090503</v>
+        <v>11.485656650152</v>
       </c>
       <c r="K3">
-        <v>21.50965455237063</v>
+        <v>22.51426913864974</v>
       </c>
       <c r="L3">
-        <v>5.354913680781726</v>
+        <v>9.617832095035554</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.08440823510384</v>
+        <v>19.81182636252943</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.681693642787472</v>
+        <v>13.50143597782014</v>
       </c>
       <c r="D4">
-        <v>4.272945927885462</v>
+        <v>6.948259031768182</v>
       </c>
       <c r="E4">
-        <v>8.651679262212381</v>
+        <v>14.06133903944161</v>
       </c>
       <c r="F4">
-        <v>32.72634549307332</v>
+        <v>47.82393102582337</v>
       </c>
       <c r="G4">
-        <v>43.04538087017792</v>
+        <v>59.1439710236677</v>
       </c>
       <c r="H4">
-        <v>13.68955413067918</v>
+        <v>21.89426536496299</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.612748506168153</v>
+        <v>11.5025733683121</v>
       </c>
       <c r="K4">
-        <v>20.63862737921895</v>
+        <v>22.3300728513259</v>
       </c>
       <c r="L4">
-        <v>5.359671733288757</v>
+        <v>9.628151619452241</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.2438484904679</v>
+        <v>19.85808573273172</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.583032918630082</v>
+        <v>13.49453745746508</v>
       </c>
       <c r="D5">
-        <v>4.235311976894347</v>
+        <v>6.944882650258729</v>
       </c>
       <c r="E5">
-        <v>8.610051734102603</v>
+        <v>14.0642607569082</v>
       </c>
       <c r="F5">
-        <v>32.54842423750083</v>
+        <v>47.84283595750721</v>
       </c>
       <c r="G5">
-        <v>42.74708758103614</v>
+        <v>59.15864924047468</v>
       </c>
       <c r="H5">
-        <v>13.67051107831396</v>
+        <v>21.91095154226117</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.614665348962339</v>
+        <v>11.50983207317018</v>
       </c>
       <c r="K5">
-        <v>20.27562526249786</v>
+        <v>22.25577234720411</v>
       </c>
       <c r="L5">
-        <v>5.362005149246602</v>
+        <v>9.632563564424981</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.30953776869045</v>
+        <v>19.87745028060218</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.566655200415592</v>
+        <v>13.4934353248372</v>
       </c>
       <c r="D6">
-        <v>4.229047928494931</v>
+        <v>6.944332235287293</v>
       </c>
       <c r="E6">
-        <v>8.603192256321201</v>
+        <v>14.0647787371288</v>
       </c>
       <c r="F6">
-        <v>32.51929840297224</v>
+        <v>47.84615791028498</v>
       </c>
       <c r="G6">
-        <v>42.698144343463</v>
+        <v>59.16135343780123</v>
       </c>
       <c r="H6">
-        <v>13.66752951619263</v>
+        <v>21.91378928581467</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.615033188219469</v>
+        <v>11.51105942482521</v>
       </c>
       <c r="K6">
-        <v>20.2148709836349</v>
+        <v>22.24348326748144</v>
       </c>
       <c r="L6">
-        <v>5.36241628284638</v>
+        <v>9.633308658812984</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.320489945784</v>
+        <v>19.88069681580672</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.680362829949626</v>
+        <v>13.50134003771272</v>
       </c>
       <c r="D7">
-        <v>4.272439418123893</v>
+        <v>6.948212812114732</v>
       </c>
       <c r="E7">
-        <v>8.651114336145618</v>
+        <v>14.06137624203694</v>
       </c>
       <c r="F7">
-        <v>32.72391792784129</v>
+        <v>47.82417372324525</v>
       </c>
       <c r="G7">
-        <v>43.04131856047611</v>
+        <v>59.1441510768347</v>
       </c>
       <c r="H7">
-        <v>13.6892851232891</v>
+        <v>21.89448590596544</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.612771018366427</v>
+        <v>11.50266978368717</v>
       </c>
       <c r="K7">
-        <v>20.63376404499287</v>
+        <v>22.32906761436751</v>
       </c>
       <c r="L7">
-        <v>5.359701612304138</v>
+        <v>9.628210283168373</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.24473144173936</v>
+        <v>19.85834480834696</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.18196601006203</v>
+        <v>13.54249379256525</v>
       </c>
       <c r="D8">
-        <v>4.461408372943365</v>
+        <v>6.966809987444512</v>
       </c>
       <c r="E8">
-        <v>8.870106704296971</v>
+        <v>14.05113080556871</v>
       </c>
       <c r="F8">
-        <v>33.6880262031486</v>
+        <v>47.75379929645138</v>
       </c>
       <c r="G8">
-        <v>44.6410226488156</v>
+        <v>59.10714157759809</v>
       </c>
       <c r="H8">
-        <v>13.81243636320029</v>
+        <v>21.81906712676032</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.61018156665932</v>
+        <v>11.4688522200073</v>
       </c>
       <c r="K8">
-        <v>22.41092185654743</v>
+        <v>22.71318185261472</v>
       </c>
       <c r="L8">
-        <v>5.351199871723293</v>
+        <v>9.607525355894387</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.91659173658585</v>
+        <v>19.76421330556849</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.15799948639063</v>
+        <v>13.64539539956284</v>
       </c>
       <c r="D9">
-        <v>4.820166834839033</v>
+        <v>7.008433976988712</v>
       </c>
       <c r="E9">
-        <v>9.325268228064381</v>
+        <v>14.04814099364365</v>
       </c>
       <c r="F9">
-        <v>35.80181496396005</v>
+        <v>47.71206430949209</v>
       </c>
       <c r="G9">
-        <v>48.08276649650686</v>
+        <v>59.17517968676852</v>
       </c>
       <c r="H9">
-        <v>14.16014973201293</v>
+        <v>21.70645999091447</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.633603579644226</v>
+        <v>11.41404349545936</v>
       </c>
       <c r="K9">
-        <v>25.62773407903304</v>
+        <v>23.4838769730922</v>
       </c>
       <c r="L9">
-        <v>5.347401061428091</v>
+        <v>9.573449986048155</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.2920819115979</v>
+        <v>19.59568202394858</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.86578316499094</v>
+        <v>13.73416899806346</v>
       </c>
       <c r="D10">
-        <v>5.074521638778304</v>
+        <v>7.042027465134167</v>
       </c>
       <c r="E10">
-        <v>9.674379227471604</v>
+        <v>14.05632621578001</v>
       </c>
       <c r="F10">
-        <v>37.49412362140745</v>
+        <v>47.74046867665305</v>
       </c>
       <c r="G10">
-        <v>50.79664768306503</v>
+        <v>59.31136269113988</v>
       </c>
       <c r="H10">
-        <v>14.48827265009336</v>
+        <v>21.64541617051756</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.670102885802394</v>
+        <v>11.38078313855567</v>
       </c>
       <c r="K10">
-        <v>27.98060923393778</v>
+        <v>24.05559784303366</v>
       </c>
       <c r="L10">
-        <v>5.352837249402898</v>
+        <v>9.552343825957262</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.84150765248656</v>
+        <v>19.48153390194241</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.18514194458895</v>
+        <v>13.77732396610976</v>
       </c>
       <c r="D11">
-        <v>5.187908403293811</v>
+        <v>7.057934554938399</v>
       </c>
       <c r="E11">
-        <v>9.83625959394459</v>
+        <v>14.06229171542898</v>
       </c>
       <c r="F11">
-        <v>38.29523185013189</v>
+        <v>47.76626623088655</v>
       </c>
       <c r="G11">
-        <v>52.07209132519282</v>
+        <v>59.39206438176539</v>
       </c>
       <c r="H11">
-        <v>14.65504075240399</v>
+        <v>21.62239011122349</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.691347751993687</v>
+        <v>11.36717211320776</v>
       </c>
       <c r="K11">
-        <v>29.03256545271729</v>
+        <v>24.31580296121825</v>
       </c>
       <c r="L11">
-        <v>5.357187718701086</v>
+        <v>9.543589705478251</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.63751493676814</v>
+        <v>19.43167978486472</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.30567344385553</v>
+        <v>13.7940554818854</v>
       </c>
       <c r="D12">
-        <v>5.230491373930716</v>
+        <v>7.064045396602865</v>
       </c>
       <c r="E12">
-        <v>9.897996061814148</v>
+        <v>14.06487170663258</v>
       </c>
       <c r="F12">
-        <v>38.60320139211093</v>
+        <v>47.77788792652888</v>
       </c>
       <c r="G12">
-        <v>52.56106952982286</v>
+        <v>59.42531712024761</v>
       </c>
       <c r="H12">
-        <v>14.72085396253253</v>
+        <v>21.61435538347439</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.700100456268212</v>
+        <v>11.36223630639335</v>
       </c>
       <c r="K12">
-        <v>29.42409268337413</v>
+        <v>24.4142660704201</v>
       </c>
       <c r="L12">
-        <v>5.359113348207803</v>
+        <v>9.540396126038834</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.56033516957315</v>
+        <v>19.41309744974447</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.27973294748599</v>
+        <v>13.79043486740139</v>
       </c>
       <c r="D13">
-        <v>5.221336388623967</v>
+        <v>7.062725484967059</v>
       </c>
       <c r="E13">
-        <v>9.884680634276085</v>
+        <v>14.06430180772645</v>
       </c>
       <c r="F13">
-        <v>38.53666753238887</v>
+        <v>47.77530258572544</v>
       </c>
       <c r="G13">
-        <v>52.45548999744791</v>
+        <v>59.41803588251108</v>
       </c>
       <c r="H13">
-        <v>14.70655915458614</v>
+        <v>21.61605531073934</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.698183252920292</v>
+        <v>11.36328960891992</v>
       </c>
       <c r="K13">
-        <v>29.34007051318371</v>
+        <v>24.39306482611249</v>
       </c>
       <c r="L13">
-        <v>5.358686117645843</v>
+        <v>9.541078526988855</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.57695542011574</v>
+        <v>19.41708633493392</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.19506629513167</v>
+        <v>13.77869272132698</v>
       </c>
       <c r="D14">
-        <v>5.191418925575006</v>
+        <v>7.058435566469991</v>
       </c>
       <c r="E14">
-        <v>9.841329960739644</v>
+        <v>14.0624975485139</v>
       </c>
       <c r="F14">
-        <v>38.32047557512277</v>
+        <v>47.76718522289891</v>
       </c>
       <c r="G14">
-        <v>52.11219875964896</v>
+        <v>59.39474617114499</v>
       </c>
       <c r="H14">
-        <v>14.66040104773693</v>
+        <v>21.6217153512951</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.692053416235081</v>
+        <v>11.36676166495676</v>
       </c>
       <c r="K14">
-        <v>29.06491223259706</v>
+        <v>24.3239055039198</v>
       </c>
       <c r="L14">
-        <v>5.357340516155165</v>
+        <v>9.543324536751536</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.6311643895491</v>
+        <v>19.43014507548226</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.1431526342175</v>
+        <v>13.77155079083967</v>
       </c>
       <c r="D15">
-        <v>5.173046980346147</v>
+        <v>7.055819137260956</v>
       </c>
       <c r="E15">
-        <v>9.814833144232304</v>
+        <v>14.06143414468653</v>
       </c>
       <c r="F15">
-        <v>38.18865572868005</v>
+        <v>47.76245438811488</v>
       </c>
       <c r="G15">
-        <v>51.90270849410601</v>
+        <v>59.38083105851197</v>
       </c>
       <c r="H15">
-        <v>14.63247891494129</v>
+        <v>21.62527154005345</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.688392131275084</v>
+        <v>11.36891683834073</v>
       </c>
       <c r="K15">
-        <v>28.89548710695316</v>
+        <v>24.28153158111876</v>
       </c>
       <c r="L15">
-        <v>5.356552782693378</v>
+        <v>9.544716082441633</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.66437552214536</v>
+        <v>19.43818247347823</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.84485694847537</v>
+        <v>13.73140374350907</v>
       </c>
       <c r="D16">
-        <v>5.067062983330048</v>
+        <v>7.0410002487939</v>
       </c>
       <c r="E16">
-        <v>9.663861099939821</v>
+        <v>14.05598135444414</v>
       </c>
       <c r="F16">
-        <v>37.44240711984633</v>
+        <v>47.73904198357049</v>
       </c>
       <c r="G16">
-        <v>50.714125389471</v>
+        <v>59.30646573832639</v>
       </c>
       <c r="H16">
-        <v>14.47773841963648</v>
+        <v>21.64701665452935</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.668811256788447</v>
+        <v>11.38170321639325</v>
       </c>
       <c r="K16">
-        <v>27.91089511490512</v>
+        <v>24.03858770254107</v>
       </c>
       <c r="L16">
-        <v>5.35259140262587</v>
+        <v>9.55293294090424</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.85485264262882</v>
+        <v>19.48483354473176</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.66116697395646</v>
+        <v>13.70747854157206</v>
       </c>
       <c r="D17">
-        <v>5.001434665703395</v>
+        <v>7.032067559335182</v>
       </c>
       <c r="E17">
-        <v>9.572024648191558</v>
+        <v>14.05320952506607</v>
       </c>
       <c r="F17">
-        <v>36.99268353222064</v>
+        <v>47.72797848043589</v>
       </c>
       <c r="G17">
-        <v>49.995499568319</v>
+        <v>59.26564620597025</v>
       </c>
       <c r="H17">
-        <v>14.38739444868909</v>
+        <v>21.66157336336643</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.658015521062927</v>
+        <v>11.3899363160251</v>
       </c>
       <c r="K17">
-        <v>27.29450648039029</v>
+        <v>23.88951778886093</v>
       </c>
       <c r="L17">
-        <v>5.350647727645606</v>
+        <v>9.558190410357357</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.97190454196277</v>
+        <v>19.5139820680656</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.55526751294225</v>
+        <v>13.69397882579855</v>
       </c>
       <c r="D18">
-        <v>4.963469464271739</v>
+        <v>7.026988732659182</v>
       </c>
       <c r="E18">
-        <v>9.519491482070197</v>
+        <v>14.0518263652452</v>
       </c>
       <c r="F18">
-        <v>36.73694895105503</v>
+        <v>47.72282705827636</v>
       </c>
       <c r="G18">
-        <v>49.58600237301841</v>
+        <v>59.2439333004962</v>
       </c>
       <c r="H18">
-        <v>14.33706956336933</v>
+        <v>21.67039228814916</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.652240368062859</v>
+        <v>11.39481478390764</v>
       </c>
       <c r="K18">
-        <v>26.935367426309</v>
+        <v>23.80379382107395</v>
       </c>
       <c r="L18">
-        <v>5.349705967323048</v>
+        <v>9.561294132479571</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.03932624717329</v>
+        <v>19.53094269447538</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.51937069174174</v>
+        <v>13.68945321461553</v>
       </c>
       <c r="D19">
-        <v>4.95057844836684</v>
+        <v>7.025279348012263</v>
       </c>
       <c r="E19">
-        <v>9.501754511189342</v>
+        <v>14.05139435185934</v>
       </c>
       <c r="F19">
-        <v>36.65086286097259</v>
+        <v>47.7212909778461</v>
       </c>
       <c r="G19">
-        <v>49.44801039071247</v>
+        <v>59.23688494841065</v>
       </c>
       <c r="H19">
-        <v>14.32030752851189</v>
+        <v>21.67345479058085</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.650358404976589</v>
+        <v>11.39649111307026</v>
       </c>
       <c r="K19">
-        <v>26.8129719962586</v>
+        <v>23.77477484744058</v>
       </c>
       <c r="L19">
-        <v>5.349417125394164</v>
+        <v>9.562358711524602</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.06217276483242</v>
+        <v>19.53671884256008</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.68074678660118</v>
+        <v>13.70999842570671</v>
       </c>
       <c r="D20">
-        <v>5.008443590533459</v>
+        <v>7.033012370582028</v>
       </c>
       <c r="E20">
-        <v>9.581770971832309</v>
+        <v>14.05348275028922</v>
       </c>
       <c r="F20">
-        <v>37.04025298309769</v>
+        <v>47.72903075750833</v>
       </c>
       <c r="G20">
-        <v>50.07160075804135</v>
+        <v>59.26980881751965</v>
       </c>
       <c r="H20">
-        <v>14.3968411018981</v>
+        <v>21.65997756759858</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.65911951762102</v>
+        <v>11.38904508842791</v>
       </c>
       <c r="K20">
-        <v>27.36059773432454</v>
+        <v>23.90538541823849</v>
       </c>
       <c r="L20">
-        <v>5.350836342916838</v>
+        <v>9.55762249137217</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.95943467954932</v>
+        <v>19.51085897127676</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.21994598466451</v>
+        <v>13.78213117235671</v>
       </c>
       <c r="D21">
-        <v>5.200216157462997</v>
+        <v>7.05969327591706</v>
       </c>
       <c r="E21">
-        <v>9.854051283170264</v>
+        <v>14.06301880381132</v>
       </c>
       <c r="F21">
-        <v>38.38385027059388</v>
+        <v>47.76951920598638</v>
       </c>
       <c r="G21">
-        <v>52.21286769554337</v>
+        <v>59.40151388980838</v>
       </c>
       <c r="H21">
-        <v>14.67388537848698</v>
+        <v>21.62003425589126</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.693834353473988</v>
+        <v>11.36573591146113</v>
       </c>
       <c r="K21">
-        <v>29.14591646956472</v>
+        <v>24.34422189661117</v>
       </c>
       <c r="L21">
-        <v>5.35772813250377</v>
+        <v>9.542661537291096</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.61524066992411</v>
+        <v>19.42630137760982</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.56999861818527</v>
+        <v>13.83154084776636</v>
       </c>
       <c r="D22">
-        <v>5.323480723816405</v>
+        <v>7.077637568994523</v>
       </c>
       <c r="E22">
-        <v>10.0345455216475</v>
+        <v>14.07112134206484</v>
       </c>
       <c r="F22">
-        <v>39.28890587612029</v>
+        <v>47.80677918001727</v>
       </c>
       <c r="G22">
-        <v>53.64736763773706</v>
+        <v>59.50328205398561</v>
       </c>
       <c r="H22">
-        <v>14.87053681044233</v>
+        <v>21.59792131527769</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.720668737242209</v>
+        <v>11.35177493777147</v>
       </c>
       <c r="K22">
-        <v>30.27304711746285</v>
+        <v>24.63057392332007</v>
       </c>
       <c r="L22">
-        <v>5.36385825014115</v>
+        <v>9.533591205121208</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.39064697595309</v>
+        <v>19.37276461490062</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.3833870044792</v>
+        <v>13.80496564251095</v>
       </c>
       <c r="D23">
-        <v>5.257886877954596</v>
+        <v>7.068014916779985</v>
       </c>
       <c r="E23">
-        <v>9.937979565265215</v>
+        <v>14.06662625419176</v>
       </c>
       <c r="F23">
-        <v>38.80334826893142</v>
+        <v>47.78590482829672</v>
       </c>
       <c r="G23">
-        <v>52.8784809235758</v>
+        <v>59.44753283341336</v>
       </c>
       <c r="H23">
-        <v>14.76410442096366</v>
+        <v>21.60935726501087</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.70595319102104</v>
+        <v>11.35910972724434</v>
       </c>
       <c r="K23">
-        <v>29.67503629200473</v>
+        <v>24.4778127184148</v>
       </c>
       <c r="L23">
-        <v>5.360434805530735</v>
+        <v>9.538367608913381</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.51050988106731</v>
+        <v>19.40118076628754</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.67189566567133</v>
+        <v>13.7088583905269</v>
       </c>
       <c r="D24">
-        <v>5.005275584750655</v>
+        <v>7.032585044624197</v>
       </c>
       <c r="E24">
-        <v>9.57736383351887</v>
+        <v>14.05335856969799</v>
       </c>
       <c r="F24">
-        <v>37.01873806626899</v>
+        <v>47.72855125677886</v>
       </c>
       <c r="G24">
-        <v>50.03718404777988</v>
+        <v>59.26792143458027</v>
       </c>
       <c r="H24">
-        <v>14.39256525027885</v>
+        <v>21.66069762508216</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.658619059891251</v>
+        <v>11.38944756029652</v>
       </c>
       <c r="K24">
-        <v>27.33073274731639</v>
+        <v>23.89821172371321</v>
       </c>
       <c r="L24">
-        <v>5.350750523347497</v>
+        <v>9.557878994797482</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.96507190334829</v>
+        <v>19.51227029163155</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.89532051268514</v>
+        <v>13.61521586687014</v>
       </c>
       <c r="D25">
-        <v>4.724606114963743</v>
+        <v>6.996634781172009</v>
       </c>
       <c r="E25">
-        <v>9.199492528483814</v>
+        <v>14.04712284457205</v>
       </c>
       <c r="F25">
-        <v>35.20577469545474</v>
+        <v>47.71300332100576</v>
       </c>
       <c r="G25">
-        <v>47.11919934733761</v>
+        <v>59.14165783393744</v>
       </c>
       <c r="H25">
-        <v>14.05389739097879</v>
+        <v>21.73312659351938</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.624024693452172</v>
+        <v>11.42763952406557</v>
       </c>
       <c r="K25">
-        <v>24.7869116410406</v>
+        <v>23.27404870949315</v>
       </c>
       <c r="L25">
-        <v>5.347012885820503</v>
+        <v>9.58197641619919</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.45932374616359</v>
+        <v>19.63956719667039</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.55515853391561</v>
+        <v>10.31757340786209</v>
       </c>
       <c r="D2">
-        <v>6.97220236164387</v>
+        <v>4.51189720197311</v>
       </c>
       <c r="E2">
-        <v>14.04951337151429</v>
+        <v>8.931224584304326</v>
       </c>
       <c r="F2">
-        <v>47.74122866356787</v>
+        <v>33.96424110675195</v>
       </c>
       <c r="G2">
-        <v>59.106604376296</v>
+        <v>45.09514224081651</v>
       </c>
       <c r="H2">
-        <v>21.80101371632457</v>
+        <v>13.85269815552423</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.46046838249002</v>
+        <v>6.611341105462904</v>
       </c>
       <c r="K2">
-        <v>22.81863010871817</v>
+        <v>22.874598335044</v>
       </c>
       <c r="L2">
-        <v>9.602360798723558</v>
+        <v>5.349754237388146</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.73979972027498</v>
+        <v>12.82908027749381</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.5201211848966</v>
+        <v>9.923845214937762</v>
       </c>
       <c r="D3">
-        <v>6.956957751958257</v>
+        <v>4.364631169706377</v>
       </c>
       <c r="E3">
-        <v>14.05550274076704</v>
+        <v>8.755949043879411</v>
       </c>
       <c r="F3">
-        <v>47.78497829900547</v>
+        <v>33.18000859227428</v>
       </c>
       <c r="G3">
-        <v>59.11881434495974</v>
+        <v>43.80125231897011</v>
       </c>
       <c r="H3">
-        <v>21.85604509383138</v>
+        <v>13.7437752931998</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.485656650152</v>
+        <v>6.610090291090397</v>
       </c>
       <c r="K3">
-        <v>22.51426913864974</v>
+        <v>21.50965455237063</v>
       </c>
       <c r="L3">
-        <v>9.617832095035554</v>
+        <v>5.35491368078176</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.81182636252943</v>
+        <v>13.0844082351038</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.50143597782014</v>
+        <v>9.68169364278747</v>
       </c>
       <c r="D4">
-        <v>6.948259031768182</v>
+        <v>4.272945927885532</v>
       </c>
       <c r="E4">
-        <v>14.06133903944161</v>
+        <v>8.651679262212376</v>
       </c>
       <c r="F4">
-        <v>47.82393102582337</v>
+        <v>32.7263454930734</v>
       </c>
       <c r="G4">
-        <v>59.1439710236677</v>
+        <v>43.04538087017799</v>
       </c>
       <c r="H4">
-        <v>21.89426536496299</v>
+        <v>13.68955413067919</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.5025733683121</v>
+        <v>6.612748506168131</v>
       </c>
       <c r="K4">
-        <v>22.3300728513259</v>
+        <v>20.63862737921897</v>
       </c>
       <c r="L4">
-        <v>9.628151619452241</v>
+        <v>5.359671733288754</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.85808573273172</v>
+        <v>13.24384849046789</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.49453745746508</v>
+        <v>9.583032918630014</v>
       </c>
       <c r="D5">
-        <v>6.944882650258729</v>
+        <v>4.235311976894267</v>
       </c>
       <c r="E5">
-        <v>14.0642607569082</v>
+        <v>8.610051734102649</v>
       </c>
       <c r="F5">
-        <v>47.84283595750721</v>
+        <v>32.54842423750056</v>
       </c>
       <c r="G5">
-        <v>59.15864924047468</v>
+        <v>42.74708758103593</v>
       </c>
       <c r="H5">
-        <v>21.91095154226117</v>
+        <v>13.67051107831381</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.50983207317018</v>
+        <v>6.614665348962455</v>
       </c>
       <c r="K5">
-        <v>22.25577234720411</v>
+        <v>20.27562526249782</v>
       </c>
       <c r="L5">
-        <v>9.632563564424981</v>
+        <v>5.36200514924669</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.87745028060218</v>
+        <v>13.30953776869041</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.4934353248372</v>
+        <v>9.566655200415809</v>
       </c>
       <c r="D6">
-        <v>6.944332235287293</v>
+        <v>4.229047928494949</v>
       </c>
       <c r="E6">
-        <v>14.0647787371288</v>
+        <v>8.603192256321204</v>
       </c>
       <c r="F6">
-        <v>47.84615791028498</v>
+        <v>32.51929840297247</v>
       </c>
       <c r="G6">
-        <v>59.16135343780123</v>
+        <v>42.69814434346323</v>
       </c>
       <c r="H6">
-        <v>21.91378928581467</v>
+        <v>13.66752951619269</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.51105942482521</v>
+        <v>6.615033188219477</v>
       </c>
       <c r="K6">
-        <v>22.24348326748144</v>
+        <v>20.21487098363495</v>
       </c>
       <c r="L6">
-        <v>9.633308658812984</v>
+        <v>5.362416282846297</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.88069681580672</v>
+        <v>13.32048994578406</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.50134003771272</v>
+        <v>9.680362829949706</v>
       </c>
       <c r="D7">
-        <v>6.948212812114732</v>
+        <v>4.272439418124026</v>
       </c>
       <c r="E7">
-        <v>14.06137624203694</v>
+        <v>8.65111433614562</v>
       </c>
       <c r="F7">
-        <v>47.82417372324525</v>
+        <v>32.72391792784099</v>
       </c>
       <c r="G7">
-        <v>59.1441510768347</v>
+        <v>43.04131856047556</v>
       </c>
       <c r="H7">
-        <v>21.89448590596544</v>
+        <v>13.68928512328899</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.50266978368717</v>
+        <v>6.612771018366262</v>
       </c>
       <c r="K7">
-        <v>22.32906761436751</v>
+        <v>20.6337640449928</v>
       </c>
       <c r="L7">
-        <v>9.628210283168373</v>
+        <v>5.359701612304081</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.85834480834696</v>
+        <v>13.2447314417393</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.54249379256525</v>
+        <v>10.1819660100621</v>
       </c>
       <c r="D8">
-        <v>6.966809987444512</v>
+        <v>4.461408372943447</v>
       </c>
       <c r="E8">
-        <v>14.05113080556871</v>
+        <v>8.870106704296978</v>
       </c>
       <c r="F8">
-        <v>47.75379929645138</v>
+        <v>33.68802620314861</v>
       </c>
       <c r="G8">
-        <v>59.10714157759809</v>
+        <v>44.64102264881554</v>
       </c>
       <c r="H8">
-        <v>21.81906712676032</v>
+        <v>13.81243636320029</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.4688522200073</v>
+        <v>6.610181566659275</v>
       </c>
       <c r="K8">
-        <v>22.71318185261472</v>
+        <v>22.41092185654743</v>
       </c>
       <c r="L8">
-        <v>9.607525355894387</v>
+        <v>5.351199871723299</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.76421330556849</v>
+        <v>12.91659173658585</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.64539539956284</v>
+        <v>11.15799948639062</v>
       </c>
       <c r="D9">
-        <v>7.008433976988712</v>
+        <v>4.820166834839068</v>
       </c>
       <c r="E9">
-        <v>14.04814099364365</v>
+        <v>9.325268228064342</v>
       </c>
       <c r="F9">
-        <v>47.71206430949209</v>
+        <v>35.80181496396006</v>
       </c>
       <c r="G9">
-        <v>59.17517968676852</v>
+        <v>48.08276649650687</v>
       </c>
       <c r="H9">
-        <v>21.70645999091447</v>
+        <v>14.16014973201299</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.41404349545936</v>
+        <v>6.633603579644176</v>
       </c>
       <c r="K9">
-        <v>23.4838769730922</v>
+        <v>25.62773407903303</v>
       </c>
       <c r="L9">
-        <v>9.573449986048155</v>
+        <v>5.347401061428117</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.59568202394858</v>
+        <v>12.29208191159794</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.73416899806346</v>
+        <v>11.86578316499087</v>
       </c>
       <c r="D10">
-        <v>7.042027465134167</v>
+        <v>5.074521638778196</v>
       </c>
       <c r="E10">
-        <v>14.05632621578001</v>
+        <v>9.674379227471569</v>
       </c>
       <c r="F10">
-        <v>47.74046867665305</v>
+        <v>37.49412362140743</v>
       </c>
       <c r="G10">
-        <v>59.31136269113988</v>
+        <v>50.79664768306515</v>
       </c>
       <c r="H10">
-        <v>21.64541617051756</v>
+        <v>14.48827265009339</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.38078313855567</v>
+        <v>6.67010288580248</v>
       </c>
       <c r="K10">
-        <v>24.05559784303366</v>
+        <v>27.98060923393774</v>
       </c>
       <c r="L10">
-        <v>9.552343825957262</v>
+        <v>5.352837249402898</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.48153390194241</v>
+        <v>11.84150765248659</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.77732396610976</v>
+        <v>12.18514194458891</v>
       </c>
       <c r="D11">
-        <v>7.057934554938399</v>
+        <v>5.187908403293811</v>
       </c>
       <c r="E11">
-        <v>14.06229171542898</v>
+        <v>9.836259593944543</v>
       </c>
       <c r="F11">
-        <v>47.76626623088655</v>
+        <v>38.29523185013187</v>
       </c>
       <c r="G11">
-        <v>59.39206438176539</v>
+        <v>52.07209132519277</v>
       </c>
       <c r="H11">
-        <v>21.62239011122349</v>
+        <v>14.65504075240399</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.36717211320776</v>
+        <v>6.691347751993655</v>
       </c>
       <c r="K11">
-        <v>24.31580296121825</v>
+        <v>29.03256545271732</v>
       </c>
       <c r="L11">
-        <v>9.543589705478251</v>
+        <v>5.357187718701086</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.43167978486472</v>
+        <v>11.63751493676817</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.7940554818854</v>
+        <v>12.3056734438555</v>
       </c>
       <c r="D12">
-        <v>7.064045396602865</v>
+        <v>5.230491373930639</v>
       </c>
       <c r="E12">
-        <v>14.06487170663258</v>
+        <v>9.897996061814117</v>
       </c>
       <c r="F12">
-        <v>47.77788792652888</v>
+        <v>38.60320139211088</v>
       </c>
       <c r="G12">
-        <v>59.42531712024761</v>
+        <v>52.56106952982288</v>
       </c>
       <c r="H12">
-        <v>21.61435538347439</v>
+        <v>14.72085396253253</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.36223630639335</v>
+        <v>6.700100456268212</v>
       </c>
       <c r="K12">
-        <v>24.4142660704201</v>
+        <v>29.42409268337422</v>
       </c>
       <c r="L12">
-        <v>9.540396126038834</v>
+        <v>5.35911334820773</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.41309744974447</v>
+        <v>11.56033516957312</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.79043486740139</v>
+        <v>12.27973294748599</v>
       </c>
       <c r="D13">
-        <v>7.062725484967059</v>
+        <v>5.221336388624045</v>
       </c>
       <c r="E13">
-        <v>14.06430180772645</v>
+        <v>9.884680634276179</v>
       </c>
       <c r="F13">
-        <v>47.77530258572544</v>
+        <v>38.53666753238883</v>
       </c>
       <c r="G13">
-        <v>59.41803588251108</v>
+        <v>52.4554899974479</v>
       </c>
       <c r="H13">
-        <v>21.61605531073934</v>
+        <v>14.70655915458608</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.36328960891992</v>
+        <v>6.698183252920341</v>
       </c>
       <c r="K13">
-        <v>24.39306482611249</v>
+        <v>29.34007051318379</v>
       </c>
       <c r="L13">
-        <v>9.541078526988855</v>
+        <v>5.35868611764595</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.41708633493392</v>
+        <v>11.57695542011564</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.77869272132698</v>
+        <v>12.19506629513165</v>
       </c>
       <c r="D14">
-        <v>7.058435566469991</v>
+        <v>5.191418925575013</v>
       </c>
       <c r="E14">
-        <v>14.0624975485139</v>
+        <v>9.841329960739612</v>
       </c>
       <c r="F14">
-        <v>47.76718522289891</v>
+        <v>38.32047557512274</v>
       </c>
       <c r="G14">
-        <v>59.39474617114499</v>
+        <v>52.11219875964888</v>
       </c>
       <c r="H14">
-        <v>21.6217153512951</v>
+        <v>14.66040104773692</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.36676166495676</v>
+        <v>6.692053416234983</v>
       </c>
       <c r="K14">
-        <v>24.3239055039198</v>
+        <v>29.06491223259706</v>
       </c>
       <c r="L14">
-        <v>9.543324536751536</v>
+        <v>5.35734051615508</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.43014507548226</v>
+        <v>11.63116438954913</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.77155079083967</v>
+        <v>12.14315263421749</v>
       </c>
       <c r="D15">
-        <v>7.055819137260956</v>
+        <v>5.173046980346147</v>
       </c>
       <c r="E15">
-        <v>14.06143414468653</v>
+        <v>9.814833144232264</v>
       </c>
       <c r="F15">
-        <v>47.76245438811488</v>
+        <v>38.18865572868005</v>
       </c>
       <c r="G15">
-        <v>59.38083105851197</v>
+        <v>51.90270849410605</v>
       </c>
       <c r="H15">
-        <v>21.62527154005345</v>
+        <v>14.63247891494128</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.36891683834073</v>
+        <v>6.688392131275034</v>
       </c>
       <c r="K15">
-        <v>24.28153158111876</v>
+        <v>28.89548710695314</v>
       </c>
       <c r="L15">
-        <v>9.544716082441633</v>
+        <v>5.356552782693321</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.43818247347823</v>
+        <v>11.66437552214536</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.73140374350907</v>
+        <v>11.84485694847542</v>
       </c>
       <c r="D16">
-        <v>7.0410002487939</v>
+        <v>5.067062983330035</v>
       </c>
       <c r="E16">
-        <v>14.05598135444414</v>
+        <v>9.663861099939858</v>
       </c>
       <c r="F16">
-        <v>47.73904198357049</v>
+        <v>37.44240711984632</v>
       </c>
       <c r="G16">
-        <v>59.30646573832639</v>
+        <v>50.71412538947099</v>
       </c>
       <c r="H16">
-        <v>21.64701665452935</v>
+        <v>14.47773841963652</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.38170321639325</v>
+        <v>6.668811256788507</v>
       </c>
       <c r="K16">
-        <v>24.03858770254107</v>
+        <v>27.91089511490513</v>
       </c>
       <c r="L16">
-        <v>9.55293294090424</v>
+        <v>5.352591402625874</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.48483354473176</v>
+        <v>11.85485264262885</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.70747854157206</v>
+        <v>11.66116697395643</v>
       </c>
       <c r="D17">
-        <v>7.032067559335182</v>
+        <v>5.001434665703403</v>
       </c>
       <c r="E17">
-        <v>14.05320952506607</v>
+        <v>9.57202464819154</v>
       </c>
       <c r="F17">
-        <v>47.72797848043589</v>
+        <v>36.99268353222062</v>
       </c>
       <c r="G17">
-        <v>59.26564620597025</v>
+        <v>49.99549956831892</v>
       </c>
       <c r="H17">
-        <v>21.66157336336643</v>
+        <v>14.38739444868907</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.3899363160251</v>
+        <v>6.658015521062929</v>
       </c>
       <c r="K17">
-        <v>23.88951778886093</v>
+        <v>27.29450648039031</v>
       </c>
       <c r="L17">
-        <v>9.558190410357357</v>
+        <v>5.350647727645607</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.5139820680656</v>
+        <v>11.97190454196274</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.69397882579855</v>
+        <v>11.55526751294221</v>
       </c>
       <c r="D18">
-        <v>7.026988732659182</v>
+        <v>4.963469464271689</v>
       </c>
       <c r="E18">
-        <v>14.0518263652452</v>
+        <v>9.519491482070261</v>
       </c>
       <c r="F18">
-        <v>47.72282705827636</v>
+        <v>36.73694895105498</v>
       </c>
       <c r="G18">
-        <v>59.2439333004962</v>
+        <v>49.58600237301837</v>
       </c>
       <c r="H18">
-        <v>21.67039228814916</v>
+        <v>14.33706956336933</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.39481478390764</v>
+        <v>6.652240368062959</v>
       </c>
       <c r="K18">
-        <v>23.80379382107395</v>
+        <v>26.93536742630894</v>
       </c>
       <c r="L18">
-        <v>9.561294132479571</v>
+        <v>5.349705967323105</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.53094269447538</v>
+        <v>12.03932624717326</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.68945321461553</v>
+        <v>11.51937069174174</v>
       </c>
       <c r="D19">
-        <v>7.025279348012263</v>
+        <v>4.950578448366848</v>
       </c>
       <c r="E19">
-        <v>14.05139435185934</v>
+        <v>9.501754511189334</v>
       </c>
       <c r="F19">
-        <v>47.7212909778461</v>
+        <v>36.65086286097273</v>
       </c>
       <c r="G19">
-        <v>59.23688494841065</v>
+        <v>49.44801039071261</v>
       </c>
       <c r="H19">
-        <v>21.67345479058085</v>
+        <v>14.32030752851201</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.39649111307026</v>
+        <v>6.650358404976584</v>
       </c>
       <c r="K19">
-        <v>23.77477484744058</v>
+        <v>26.81297199625854</v>
       </c>
       <c r="L19">
-        <v>9.562358711524602</v>
+        <v>5.349417125394133</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.53671884256008</v>
+        <v>12.06217276483259</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.70999842570671</v>
+        <v>11.68074678660124</v>
       </c>
       <c r="D20">
-        <v>7.033012370582028</v>
+        <v>5.008443590533551</v>
       </c>
       <c r="E20">
-        <v>14.05348275028922</v>
+        <v>9.58177097183235</v>
       </c>
       <c r="F20">
-        <v>47.72903075750833</v>
+        <v>37.0402529830977</v>
       </c>
       <c r="G20">
-        <v>59.26980881751965</v>
+        <v>50.07160075804132</v>
       </c>
       <c r="H20">
-        <v>21.65997756759858</v>
+        <v>14.39684110189809</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.38904508842791</v>
+        <v>6.659119517621017</v>
       </c>
       <c r="K20">
-        <v>23.90538541823849</v>
+        <v>27.36059773432455</v>
       </c>
       <c r="L20">
-        <v>9.55762249137217</v>
+        <v>5.350836342916841</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.51085897127676</v>
+        <v>11.95943467954936</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.78213117235671</v>
+        <v>12.21994598466449</v>
       </c>
       <c r="D21">
-        <v>7.05969327591706</v>
+        <v>5.200216157462997</v>
       </c>
       <c r="E21">
-        <v>14.06301880381132</v>
+        <v>9.854051283170326</v>
       </c>
       <c r="F21">
-        <v>47.76951920598638</v>
+        <v>38.3838502705938</v>
       </c>
       <c r="G21">
-        <v>59.40151388980838</v>
+        <v>52.21286769554324</v>
       </c>
       <c r="H21">
-        <v>21.62003425589126</v>
+        <v>14.67388537848699</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.36573591146113</v>
+        <v>6.693834353474011</v>
       </c>
       <c r="K21">
-        <v>24.34422189661117</v>
+        <v>29.14591646956472</v>
       </c>
       <c r="L21">
-        <v>9.542661537291096</v>
+        <v>5.357728132503882</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.42630137760982</v>
+        <v>11.61524066992405</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.83154084776636</v>
+        <v>12.56999861818527</v>
       </c>
       <c r="D22">
-        <v>7.077637568994523</v>
+        <v>5.323480723816354</v>
       </c>
       <c r="E22">
-        <v>14.07112134206484</v>
+        <v>10.03454552164744</v>
       </c>
       <c r="F22">
-        <v>47.80677918001727</v>
+        <v>39.28890587612032</v>
       </c>
       <c r="G22">
-        <v>59.50328205398561</v>
+        <v>53.64736763773706</v>
       </c>
       <c r="H22">
-        <v>21.59792131527769</v>
+        <v>14.87053681044241</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.35177493777147</v>
+        <v>6.72066873724216</v>
       </c>
       <c r="K22">
-        <v>24.63057392332007</v>
+        <v>30.27304711746282</v>
       </c>
       <c r="L22">
-        <v>9.533591205121208</v>
+        <v>5.363858250141099</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.37276461490062</v>
+        <v>11.39064697595312</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.80496564251095</v>
+        <v>12.38338700447917</v>
       </c>
       <c r="D23">
-        <v>7.068014916779985</v>
+        <v>5.257886877954544</v>
       </c>
       <c r="E23">
-        <v>14.06662625419176</v>
+        <v>9.937979565265142</v>
       </c>
       <c r="F23">
-        <v>47.78590482829672</v>
+        <v>38.80334826893135</v>
       </c>
       <c r="G23">
-        <v>59.44753283341336</v>
+        <v>52.87848092357573</v>
       </c>
       <c r="H23">
-        <v>21.60935726501087</v>
+        <v>14.76410442096363</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.35910972724434</v>
+        <v>6.705953191020964</v>
       </c>
       <c r="K23">
-        <v>24.4778127184148</v>
+        <v>29.67503629200478</v>
       </c>
       <c r="L23">
-        <v>9.538367608913381</v>
+        <v>5.360434805530751</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.40118076628754</v>
+        <v>11.51050988106732</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.7088583905269</v>
+        <v>11.67189566567133</v>
       </c>
       <c r="D24">
-        <v>7.032585044624197</v>
+        <v>5.005275584750621</v>
       </c>
       <c r="E24">
-        <v>14.05335856969799</v>
+        <v>9.577363833518875</v>
       </c>
       <c r="F24">
-        <v>47.72855125677886</v>
+        <v>37.01873806626886</v>
       </c>
       <c r="G24">
-        <v>59.26792143458027</v>
+        <v>50.03718404777978</v>
       </c>
       <c r="H24">
-        <v>21.66069762508216</v>
+        <v>14.39256525027878</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.38944756029652</v>
+        <v>6.658619059891249</v>
       </c>
       <c r="K24">
-        <v>23.89821172371321</v>
+        <v>27.33073274731643</v>
       </c>
       <c r="L24">
-        <v>9.557878994797482</v>
+        <v>5.35075052334748</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.51227029163155</v>
+        <v>11.96507190334822</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.61521586687014</v>
+        <v>10.89532051268533</v>
       </c>
       <c r="D25">
-        <v>6.996634781172009</v>
+        <v>4.724606114963792</v>
       </c>
       <c r="E25">
-        <v>14.04712284457205</v>
+        <v>9.199492528483891</v>
       </c>
       <c r="F25">
-        <v>47.71300332100576</v>
+        <v>35.20577469545478</v>
       </c>
       <c r="G25">
-        <v>59.14165783393744</v>
+        <v>47.11919934733758</v>
       </c>
       <c r="H25">
-        <v>21.73312659351938</v>
+        <v>14.05389739097887</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.42763952406557</v>
+        <v>6.624024693452234</v>
       </c>
       <c r="K25">
-        <v>23.27404870949315</v>
+        <v>24.78691164104061</v>
       </c>
       <c r="L25">
-        <v>9.58197641619919</v>
+        <v>5.347012885820498</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.63956719667039</v>
+        <v>12.45932374616363</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.31757340786209</v>
+        <v>5.714820499908253</v>
       </c>
       <c r="D2">
-        <v>4.51189720197311</v>
+        <v>8.370932194331928</v>
       </c>
       <c r="E2">
-        <v>8.931224584304326</v>
+        <v>19.39385221862855</v>
       </c>
       <c r="F2">
-        <v>33.96424110675195</v>
+        <v>19.02686420914538</v>
       </c>
       <c r="G2">
-        <v>45.09514224081651</v>
+        <v>34.57737071921393</v>
       </c>
       <c r="H2">
-        <v>13.85269815552423</v>
+        <v>5.290816371688967</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>5.244509044957056</v>
       </c>
       <c r="J2">
-        <v>6.611341105462904</v>
+        <v>10.07613313356306</v>
       </c>
       <c r="K2">
-        <v>22.874598335044</v>
+        <v>18.43362819360364</v>
       </c>
       <c r="L2">
-        <v>5.349754237388146</v>
+        <v>11.83467773501066</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.82908027749381</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>98.57746867975872</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.923845214937762</v>
+        <v>5.190767046967874</v>
       </c>
       <c r="D3">
-        <v>4.364631169706377</v>
+        <v>7.939212515411715</v>
       </c>
       <c r="E3">
-        <v>8.755949043879411</v>
+        <v>18.12367283469343</v>
       </c>
       <c r="F3">
-        <v>33.18000859227428</v>
+        <v>18.41611010687996</v>
       </c>
       <c r="G3">
-        <v>43.80125231897011</v>
+        <v>32.32763319819188</v>
       </c>
       <c r="H3">
-        <v>13.7437752931998</v>
+        <v>4.48469308807073</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.770677912513632</v>
       </c>
       <c r="J3">
-        <v>6.610090291090397</v>
+        <v>9.86431706652035</v>
       </c>
       <c r="K3">
-        <v>21.50965455237063</v>
+        <v>17.67641825141416</v>
       </c>
       <c r="L3">
-        <v>5.35491368078176</v>
+        <v>11.07061248455292</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.0844082351038</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>91.42380223299857</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.68169364278747</v>
+        <v>4.864509930372345</v>
       </c>
       <c r="D4">
-        <v>4.272945927885532</v>
+        <v>7.659090402721041</v>
       </c>
       <c r="E4">
-        <v>8.651679262212376</v>
+        <v>17.29765426167601</v>
       </c>
       <c r="F4">
-        <v>32.7263454930734</v>
+        <v>18.13643605684857</v>
       </c>
       <c r="G4">
-        <v>43.04538087017799</v>
+        <v>30.99748016697284</v>
       </c>
       <c r="H4">
-        <v>13.68955413067919</v>
+        <v>3.996481334820708</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.478810704365872</v>
       </c>
       <c r="J4">
-        <v>6.612748506168131</v>
+        <v>9.757370722115867</v>
       </c>
       <c r="K4">
-        <v>20.63862737921897</v>
+        <v>17.23653472635231</v>
       </c>
       <c r="L4">
-        <v>5.359671733288754</v>
+        <v>10.57636334312821</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.24384849046789</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>86.87403940184825</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.583032918630014</v>
+        <v>4.72241706373973</v>
       </c>
       <c r="D5">
-        <v>4.235311976894267</v>
+        <v>7.536936325561418</v>
       </c>
       <c r="E5">
-        <v>8.610051734102649</v>
+        <v>16.94712364995074</v>
       </c>
       <c r="F5">
-        <v>32.54842423750056</v>
+        <v>18.0267594030438</v>
       </c>
       <c r="G5">
-        <v>42.74708758103593</v>
+        <v>30.43358764892448</v>
       </c>
       <c r="H5">
-        <v>13.67051107831381</v>
+        <v>3.79792915087571</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.358681096843556</v>
       </c>
       <c r="J5">
-        <v>6.614665348962455</v>
+        <v>9.712393177878385</v>
       </c>
       <c r="K5">
-        <v>20.27562526249782</v>
+        <v>17.04549549324896</v>
       </c>
       <c r="L5">
-        <v>5.36200514924669</v>
+        <v>10.36905432935963</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.30953776869041</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>84.97651370471125</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.566655200415809</v>
+        <v>4.689498619112152</v>
       </c>
       <c r="D6">
-        <v>4.229047928494949</v>
+        <v>7.511152850817117</v>
       </c>
       <c r="E6">
-        <v>8.603192256321204</v>
+        <v>16.88569626768058</v>
       </c>
       <c r="F6">
-        <v>32.51929840297247</v>
+        <v>17.98855003126979</v>
       </c>
       <c r="G6">
-        <v>42.69814434346323</v>
+        <v>30.29914056246866</v>
       </c>
       <c r="H6">
-        <v>13.66752951619269</v>
+        <v>3.764320310464914</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.338039761538807</v>
       </c>
       <c r="J6">
-        <v>6.615033188219477</v>
+        <v>9.697107290670589</v>
       </c>
       <c r="K6">
-        <v>20.21487098363495</v>
+        <v>16.99261900311053</v>
       </c>
       <c r="L6">
-        <v>5.362416282846297</v>
+        <v>10.33499554153677</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.32048994578406</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>84.65856980596152</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.680362829949706</v>
+        <v>4.838202728499684</v>
       </c>
       <c r="D7">
-        <v>4.272439418124026</v>
+        <v>7.643275842587081</v>
       </c>
       <c r="E7">
-        <v>8.65111433614562</v>
+        <v>17.28634102674637</v>
       </c>
       <c r="F7">
-        <v>32.72391792784099</v>
+        <v>18.07688637941457</v>
       </c>
       <c r="G7">
-        <v>43.04131856047556</v>
+        <v>30.87822343694834</v>
       </c>
       <c r="H7">
-        <v>13.68928512328899</v>
+        <v>3.991956554093724</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.475160159973386</v>
       </c>
       <c r="J7">
-        <v>6.612771018366262</v>
+        <v>9.734570656342994</v>
       </c>
       <c r="K7">
-        <v>20.6337640449928</v>
+        <v>17.17565684291311</v>
       </c>
       <c r="L7">
-        <v>5.359701612304081</v>
+        <v>10.57563484978277</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.2447314417393</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>86.84819210615383</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.1819660100621</v>
+        <v>5.505968370184011</v>
       </c>
       <c r="D8">
-        <v>4.461408372943447</v>
+        <v>8.207541646377106</v>
       </c>
       <c r="E8">
-        <v>8.870106704296978</v>
+        <v>18.95728286864274</v>
       </c>
       <c r="F8">
-        <v>33.68802620314861</v>
+        <v>18.71927073166287</v>
       </c>
       <c r="G8">
-        <v>44.64102264881554</v>
+        <v>33.65142893489473</v>
       </c>
       <c r="H8">
-        <v>13.81243636320029</v>
+        <v>5.008549117067824</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>5.078022112026105</v>
       </c>
       <c r="J8">
-        <v>6.610181566659275</v>
+        <v>9.968745502064872</v>
       </c>
       <c r="K8">
-        <v>22.41092185654743</v>
+        <v>18.09212273224278</v>
       </c>
       <c r="L8">
-        <v>5.351199871723299</v>
+        <v>11.5788111582691</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.91659173658585</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>96.1402831772678</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.15799948639062</v>
+        <v>6.841512740704639</v>
       </c>
       <c r="D9">
-        <v>4.820166834839068</v>
+        <v>9.351257691621305</v>
       </c>
       <c r="E9">
-        <v>9.325268228064342</v>
+        <v>21.8944676020078</v>
       </c>
       <c r="F9">
-        <v>35.80181496396006</v>
+        <v>20.94424022594866</v>
       </c>
       <c r="G9">
-        <v>48.08276649650687</v>
+        <v>39.77049268190108</v>
       </c>
       <c r="H9">
-        <v>14.16014973201299</v>
+        <v>7.10283983197611</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>6.275893604440872</v>
       </c>
       <c r="J9">
-        <v>6.633603579644176</v>
+        <v>10.67986833826886</v>
       </c>
       <c r="K9">
-        <v>25.62773407903303</v>
+        <v>20.21873109032789</v>
       </c>
       <c r="L9">
-        <v>5.347401061428117</v>
+        <v>13.3559121263586</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.29208191159794</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>113.3339254889351</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.86578316499087</v>
+        <v>7.876953336035146</v>
       </c>
       <c r="D10">
-        <v>5.074521638778196</v>
+        <v>10.25379593371069</v>
       </c>
       <c r="E10">
-        <v>9.674379227471569</v>
+        <v>24.11920786116888</v>
       </c>
       <c r="F10">
-        <v>37.49412362140743</v>
+        <v>23.40993653097561</v>
       </c>
       <c r="G10">
-        <v>50.79664768306515</v>
+        <v>44.43851422415464</v>
       </c>
       <c r="H10">
-        <v>14.48827265009339</v>
+        <v>8.776121670227905</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>7.194729934405816</v>
       </c>
       <c r="J10">
-        <v>6.67010288580248</v>
+        <v>11.27252651297427</v>
       </c>
       <c r="K10">
-        <v>27.98060923393774</v>
+        <v>21.78222469337955</v>
       </c>
       <c r="L10">
-        <v>5.352837249402898</v>
+        <v>14.72291811481784</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.84150765248659</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>125.7669379640427</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.18514194458891</v>
+        <v>8.551370314187889</v>
       </c>
       <c r="D11">
-        <v>5.187908403293811</v>
+        <v>11.32291791613771</v>
       </c>
       <c r="E11">
-        <v>9.836259593944543</v>
+        <v>27.25589577732674</v>
       </c>
       <c r="F11">
-        <v>38.29523185013187</v>
+        <v>22.26867589243345</v>
       </c>
       <c r="G11">
-        <v>52.07209132519277</v>
+        <v>43.34025086158474</v>
       </c>
       <c r="H11">
-        <v>14.65504075240399</v>
+        <v>9.741732465318789</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>7.614022748412134</v>
       </c>
       <c r="J11">
-        <v>6.691347751993655</v>
+        <v>10.74332233348929</v>
       </c>
       <c r="K11">
-        <v>29.03256545271732</v>
+        <v>21.13718452827056</v>
       </c>
       <c r="L11">
-        <v>5.357187718701086</v>
+        <v>16.62866705307065</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.63751493676817</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>131.5124916902362</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.3056734438555</v>
+        <v>8.943026321604544</v>
       </c>
       <c r="D12">
-        <v>5.230491373930639</v>
+        <v>12.07182341004421</v>
       </c>
       <c r="E12">
-        <v>9.897996061814117</v>
+        <v>29.4944400536039</v>
       </c>
       <c r="F12">
-        <v>38.60320139211088</v>
+        <v>20.85719087079959</v>
       </c>
       <c r="G12">
-        <v>52.56106952982288</v>
+        <v>41.57143848091923</v>
       </c>
       <c r="H12">
-        <v>14.72085396253253</v>
+        <v>10.48173917644548</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>7.783003443234557</v>
       </c>
       <c r="J12">
-        <v>6.700100456268212</v>
+        <v>10.28031091262008</v>
       </c>
       <c r="K12">
-        <v>29.42409268337422</v>
+        <v>20.36065178580117</v>
       </c>
       <c r="L12">
-        <v>5.35911334820773</v>
+        <v>17.98302404832754</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.56033516957312</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>133.7321132171644</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.27973294748599</v>
+        <v>9.109064415010833</v>
       </c>
       <c r="D13">
-        <v>5.221336388624045</v>
+        <v>12.62266495474286</v>
       </c>
       <c r="E13">
-        <v>9.884680634276179</v>
+        <v>31.23037783396455</v>
       </c>
       <c r="F13">
-        <v>38.53666753238883</v>
+        <v>18.87145260380639</v>
       </c>
       <c r="G13">
-        <v>52.4554899974479</v>
+        <v>38.82289507351727</v>
       </c>
       <c r="H13">
-        <v>14.70655915458608</v>
+        <v>11.04064960345602</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>7.75220889431426</v>
       </c>
       <c r="J13">
-        <v>6.698183252920341</v>
+        <v>9.580146136379989</v>
       </c>
       <c r="K13">
-        <v>29.34007051318379</v>
+        <v>19.13609101525292</v>
       </c>
       <c r="L13">
-        <v>5.35868611764595</v>
+        <v>19.0319488631478</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.57695542011564</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>133.2592276749977</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.19506629513165</v>
+        <v>9.123907671645531</v>
       </c>
       <c r="D14">
-        <v>5.191418925575013</v>
+        <v>12.92336500722633</v>
       </c>
       <c r="E14">
-        <v>9.841329960739612</v>
+        <v>32.24339545064461</v>
       </c>
       <c r="F14">
-        <v>38.32047557512274</v>
+        <v>17.16158825012271</v>
       </c>
       <c r="G14">
-        <v>52.11219875964888</v>
+        <v>36.37286730083915</v>
       </c>
       <c r="H14">
-        <v>14.66040104773692</v>
+        <v>11.3867033889244</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>7.640410416678926</v>
       </c>
       <c r="J14">
-        <v>6.692053416234983</v>
+        <v>8.961542001171201</v>
       </c>
       <c r="K14">
-        <v>29.06491223259706</v>
+        <v>18.03800678170026</v>
       </c>
       <c r="L14">
-        <v>5.35734051615508</v>
+        <v>19.64563147151386</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.63116438954913</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>131.7094610633296</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.14315263421749</v>
+        <v>9.070615894768141</v>
       </c>
       <c r="D15">
-        <v>5.173046980346147</v>
+        <v>12.9495452788909</v>
       </c>
       <c r="E15">
-        <v>9.814833144232264</v>
+        <v>32.38101118893307</v>
       </c>
       <c r="F15">
-        <v>38.18865572868005</v>
+        <v>16.57153156038278</v>
       </c>
       <c r="G15">
-        <v>51.90270849410605</v>
+        <v>35.50826029627404</v>
       </c>
       <c r="H15">
-        <v>14.63247891494128</v>
+        <v>11.40642539059541</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>7.568780858020238</v>
       </c>
       <c r="J15">
-        <v>6.688392131275034</v>
+        <v>8.745876274119698</v>
       </c>
       <c r="K15">
-        <v>28.89548710695314</v>
+        <v>17.64631282432162</v>
       </c>
       <c r="L15">
-        <v>5.356552782693321</v>
+        <v>19.73021044732798</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.66437552214536</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>130.7609178299836</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.84485694847542</v>
+        <v>8.57442064732208</v>
       </c>
       <c r="D16">
-        <v>5.067062983330035</v>
+        <v>12.50197488830478</v>
       </c>
       <c r="E16">
-        <v>9.663861099939858</v>
+        <v>31.24516999052481</v>
       </c>
       <c r="F16">
-        <v>37.44240711984632</v>
+        <v>15.17676439554134</v>
       </c>
       <c r="G16">
-        <v>50.71412538947099</v>
+        <v>33.41369895547294</v>
       </c>
       <c r="H16">
-        <v>14.47773841963652</v>
+        <v>10.6212549267382</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>7.152752255430994</v>
       </c>
       <c r="J16">
-        <v>6.668811256788507</v>
+        <v>8.413595650754615</v>
       </c>
       <c r="K16">
-        <v>27.91089511490513</v>
+        <v>16.70525217772078</v>
       </c>
       <c r="L16">
-        <v>5.352591402625874</v>
+        <v>19.03608646121185</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.85485264262885</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>125.3733330736277</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.66116697395643</v>
+        <v>8.184535588408785</v>
       </c>
       <c r="D17">
-        <v>5.001434665703403</v>
+        <v>11.98285172987437</v>
       </c>
       <c r="E17">
-        <v>9.57202464819154</v>
+        <v>29.78914593883082</v>
       </c>
       <c r="F17">
-        <v>36.99268353222062</v>
+        <v>15.17792755568055</v>
       </c>
       <c r="G17">
-        <v>49.99549956831892</v>
+        <v>33.26475933063907</v>
       </c>
       <c r="H17">
-        <v>14.38739444868907</v>
+        <v>9.78743718120327</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>6.89923690817531</v>
       </c>
       <c r="J17">
-        <v>6.658015521062929</v>
+        <v>8.5869832104043</v>
       </c>
       <c r="K17">
-        <v>27.29450648039031</v>
+        <v>16.82057243406447</v>
       </c>
       <c r="L17">
-        <v>5.350647727645607</v>
+        <v>18.14937083287589</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.97190454196274</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>122.107249180143</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.55526751294221</v>
+        <v>7.858400285559078</v>
       </c>
       <c r="D18">
-        <v>4.963469464271689</v>
+        <v>11.36020076072135</v>
       </c>
       <c r="E18">
-        <v>9.519491482070261</v>
+        <v>27.91187688673238</v>
       </c>
       <c r="F18">
-        <v>36.73694895105498</v>
+        <v>16.43601725518358</v>
       </c>
       <c r="G18">
-        <v>49.58600237301837</v>
+        <v>34.83186743893332</v>
       </c>
       <c r="H18">
-        <v>14.33706956336933</v>
+        <v>8.8876572581809</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>6.754648217798572</v>
       </c>
       <c r="J18">
-        <v>6.652240368062959</v>
+        <v>9.106473670252127</v>
       </c>
       <c r="K18">
-        <v>26.93536742630894</v>
+        <v>17.66774528201197</v>
       </c>
       <c r="L18">
-        <v>5.349705967323105</v>
+        <v>17.00441746304047</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.03932624717326</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>120.2385932468375</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.51937069174174</v>
+        <v>7.585194553796565</v>
       </c>
       <c r="D19">
-        <v>4.950578448366848</v>
+        <v>10.69159181313113</v>
       </c>
       <c r="E19">
-        <v>9.501754511189334</v>
+        <v>25.86509595342395</v>
       </c>
       <c r="F19">
-        <v>36.65086286097273</v>
+        <v>18.48443943678941</v>
       </c>
       <c r="G19">
-        <v>49.44801039071261</v>
+        <v>37.44626833812752</v>
       </c>
       <c r="H19">
-        <v>14.32030752851201</v>
+        <v>8.204016431163227</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>6.708917155156753</v>
       </c>
       <c r="J19">
-        <v>6.650358404976584</v>
+        <v>9.805844267882565</v>
       </c>
       <c r="K19">
-        <v>26.81297199625854</v>
+        <v>18.88146867353684</v>
       </c>
       <c r="L19">
-        <v>5.349417125394133</v>
+        <v>15.76732566194953</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.06217276483259</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>119.6126257111877</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.68074678660124</v>
+        <v>7.549653225757064</v>
       </c>
       <c r="D20">
-        <v>5.008443590533551</v>
+        <v>9.991516702612504</v>
       </c>
       <c r="E20">
-        <v>9.58177097183235</v>
+        <v>23.54372680445423</v>
       </c>
       <c r="F20">
-        <v>37.0402529830977</v>
+        <v>22.4810476822139</v>
       </c>
       <c r="G20">
-        <v>50.07160075804132</v>
+        <v>42.8763512478689</v>
       </c>
       <c r="H20">
-        <v>14.39684110189809</v>
+        <v>8.313364689239606</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>6.941134751209652</v>
       </c>
       <c r="J20">
-        <v>6.659119517621017</v>
+        <v>11.03076039797746</v>
       </c>
       <c r="K20">
-        <v>27.36059773432455</v>
+        <v>21.18378346462341</v>
       </c>
       <c r="L20">
-        <v>5.350836342916841</v>
+        <v>14.38152757891322</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.95943467954936</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>122.4788800046086</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.21994598466449</v>
+        <v>8.361544514014762</v>
       </c>
       <c r="D21">
-        <v>5.200216157462997</v>
+        <v>10.54192615148323</v>
       </c>
       <c r="E21">
-        <v>9.854051283170326</v>
+        <v>24.82212962471237</v>
       </c>
       <c r="F21">
-        <v>38.3838502705938</v>
+        <v>25.29254015604066</v>
       </c>
       <c r="G21">
-        <v>52.21286769554324</v>
+        <v>47.34728671971506</v>
       </c>
       <c r="H21">
-        <v>14.67388537848699</v>
+        <v>9.70702039975164</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>7.68339280446463</v>
       </c>
       <c r="J21">
-        <v>6.693834353474011</v>
+        <v>11.75716789533817</v>
       </c>
       <c r="K21">
-        <v>29.14591646956472</v>
+        <v>22.89607812772479</v>
       </c>
       <c r="L21">
-        <v>5.357728132503882</v>
+        <v>15.18041500569197</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.61524066992405</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>132.1845777020029</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.56999861818527</v>
+        <v>8.958097887240557</v>
       </c>
       <c r="D22">
-        <v>5.323480723816354</v>
+        <v>10.94450747378461</v>
       </c>
       <c r="E22">
-        <v>10.03454552164744</v>
+        <v>25.78162264404583</v>
       </c>
       <c r="F22">
-        <v>39.28890587612032</v>
+        <v>27.21874084233594</v>
       </c>
       <c r="G22">
-        <v>53.64736763773706</v>
+        <v>50.35481069995892</v>
       </c>
       <c r="H22">
-        <v>14.87053681044241</v>
+        <v>10.69922249074581</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>8.201006608157266</v>
       </c>
       <c r="J22">
-        <v>6.72066873724216</v>
+        <v>12.48885366569289</v>
       </c>
       <c r="K22">
-        <v>30.27304711746282</v>
+        <v>24.26729483793999</v>
       </c>
       <c r="L22">
-        <v>5.363858250141099</v>
+        <v>15.77917830841398</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.39064697595312</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>138.7824686475747</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.38338700447917</v>
+        <v>8.652064229357052</v>
       </c>
       <c r="D23">
-        <v>5.257886877954544</v>
+        <v>10.74311916078287</v>
       </c>
       <c r="E23">
-        <v>9.937979565265142</v>
+        <v>25.27492858714163</v>
       </c>
       <c r="F23">
-        <v>38.80334826893135</v>
+        <v>26.2251120663822</v>
       </c>
       <c r="G23">
-        <v>52.87848092357573</v>
+        <v>48.82484839142363</v>
       </c>
       <c r="H23">
-        <v>14.76410442096363</v>
+        <v>10.1619623708118</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>7.923634417918477</v>
       </c>
       <c r="J23">
-        <v>6.705953191020964</v>
+        <v>12.11720082058951</v>
       </c>
       <c r="K23">
-        <v>29.67503629200478</v>
+        <v>23.58490023986181</v>
       </c>
       <c r="L23">
-        <v>5.360434805530751</v>
+        <v>15.45698592389165</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.51050988106732</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>135.2281580675698</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.67189566567133</v>
+        <v>7.54808950340124</v>
       </c>
       <c r="D24">
-        <v>5.005275584750621</v>
+        <v>9.938046419695349</v>
       </c>
       <c r="E24">
-        <v>9.577363833518875</v>
+        <v>23.32888048410265</v>
       </c>
       <c r="F24">
-        <v>37.01873806626886</v>
+        <v>22.77313471030343</v>
       </c>
       <c r="G24">
-        <v>50.03718404777978</v>
+        <v>43.27966836601841</v>
       </c>
       <c r="H24">
-        <v>14.39256525027878</v>
+        <v>8.304380790370306</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>6.935209287432174</v>
       </c>
       <c r="J24">
-        <v>6.658619059891249</v>
+        <v>11.13708889940093</v>
       </c>
       <c r="K24">
-        <v>27.33073274731643</v>
+        <v>21.39189844553731</v>
       </c>
       <c r="L24">
-        <v>5.35075052334748</v>
+        <v>14.24475410011788</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.96507190334822</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>122.3276142504292</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.89532051268533</v>
+        <v>6.443997537669816</v>
       </c>
       <c r="D25">
-        <v>4.724606114963792</v>
+        <v>9.006508297817019</v>
       </c>
       <c r="E25">
-        <v>9.199492528483891</v>
+        <v>21.12504525352344</v>
       </c>
       <c r="F25">
-        <v>35.20577469545478</v>
+        <v>20.13528933647869</v>
       </c>
       <c r="G25">
-        <v>47.11919934733758</v>
+        <v>37.85823597719106</v>
       </c>
       <c r="H25">
-        <v>14.05389739097887</v>
+        <v>6.515235928440492</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>5.943650134144172</v>
       </c>
       <c r="J25">
-        <v>6.624024693452234</v>
+        <v>10.42114483405365</v>
       </c>
       <c r="K25">
-        <v>24.78691164104061</v>
+        <v>19.51650269341078</v>
       </c>
       <c r="L25">
-        <v>5.347012885820498</v>
+        <v>12.8962423947712</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.45932374616363</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>108.7550397314438</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.714820499908253</v>
+        <v>5.117995042941025</v>
       </c>
       <c r="D2">
-        <v>8.370932194331928</v>
+        <v>7.720335763795908</v>
       </c>
       <c r="E2">
-        <v>19.39385221862855</v>
+        <v>19.16897211399534</v>
       </c>
       <c r="F2">
-        <v>19.02686420914538</v>
+        <v>16.736102266416</v>
       </c>
       <c r="G2">
-        <v>34.57737071921393</v>
+        <v>29.74146879692235</v>
       </c>
       <c r="H2">
-        <v>5.290816371688967</v>
+        <v>5.035780118261604</v>
       </c>
       <c r="I2">
-        <v>5.244509044957056</v>
+        <v>4.858447545571145</v>
       </c>
       <c r="J2">
-        <v>10.07613313356306</v>
+        <v>9.955205398267511</v>
       </c>
       <c r="K2">
-        <v>18.43362819360364</v>
+        <v>16.20703403146819</v>
       </c>
       <c r="L2">
-        <v>11.83467773501066</v>
+        <v>14.69732638349153</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.17628146956626</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.95175420280138</v>
       </c>
       <c r="O2">
-        <v>98.57746867975872</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>98.49144149197295</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.190767046967874</v>
+        <v>4.549957528778182</v>
       </c>
       <c r="D3">
-        <v>7.939212515411715</v>
+        <v>7.355818294855963</v>
       </c>
       <c r="E3">
-        <v>18.12367283469343</v>
+        <v>17.91108783055671</v>
       </c>
       <c r="F3">
-        <v>18.41611010687996</v>
+        <v>16.51434082503738</v>
       </c>
       <c r="G3">
-        <v>32.32763319819188</v>
+        <v>28.00213907791596</v>
       </c>
       <c r="H3">
-        <v>4.48469308807073</v>
+        <v>4.28739502581299</v>
       </c>
       <c r="I3">
-        <v>4.770677912513632</v>
+        <v>4.476112889936134</v>
       </c>
       <c r="J3">
-        <v>9.86431706652035</v>
+        <v>9.844478264071615</v>
       </c>
       <c r="K3">
-        <v>17.67641825141416</v>
+        <v>15.7697805546357</v>
       </c>
       <c r="L3">
-        <v>11.07061248455292</v>
+        <v>14.59805655325114</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.41148565384526</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>11.16961977750675</v>
       </c>
       <c r="O3">
-        <v>91.42380223299857</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>91.36981447690512</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.864509930372345</v>
+        <v>4.203165199629626</v>
       </c>
       <c r="D4">
-        <v>7.659090402721041</v>
+        <v>7.131698257990346</v>
       </c>
       <c r="E4">
-        <v>17.29765426167601</v>
+        <v>17.09530204022124</v>
       </c>
       <c r="F4">
-        <v>18.13643605684857</v>
+        <v>16.46407074185347</v>
       </c>
       <c r="G4">
-        <v>30.99748016697284</v>
+        <v>26.99908269888002</v>
       </c>
       <c r="H4">
-        <v>3.996481334820708</v>
+        <v>3.833664491689742</v>
       </c>
       <c r="I4">
-        <v>4.478810704365872</v>
+        <v>4.240107777159302</v>
       </c>
       <c r="J4">
-        <v>9.757370722115867</v>
+        <v>9.787119156310293</v>
       </c>
       <c r="K4">
-        <v>17.23653472635231</v>
+        <v>15.52090813807103</v>
       </c>
       <c r="L4">
-        <v>10.57636334312821</v>
+        <v>14.53711087681352</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.981123540234739</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>10.66416331489392</v>
       </c>
       <c r="O4">
-        <v>86.87403940184825</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>86.83579437845751</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.72241706373973</v>
+        <v>4.05828212192127</v>
       </c>
       <c r="D5">
-        <v>7.536936325561418</v>
+        <v>7.033883881218626</v>
       </c>
       <c r="E5">
-        <v>16.94712364995074</v>
+        <v>16.74976122851626</v>
       </c>
       <c r="F5">
-        <v>18.0267594030438</v>
+        <v>16.44751042127362</v>
       </c>
       <c r="G5">
-        <v>30.43358764892448</v>
+        <v>26.57486562649022</v>
       </c>
       <c r="H5">
-        <v>3.79792915087571</v>
+        <v>3.64910833426474</v>
       </c>
       <c r="I5">
-        <v>4.358681096843556</v>
+        <v>4.143106690471962</v>
       </c>
       <c r="J5">
-        <v>9.712393177878385</v>
+        <v>9.760574358995797</v>
       </c>
       <c r="K5">
-        <v>17.04549549324896</v>
+        <v>15.40870575188118</v>
       </c>
       <c r="L5">
-        <v>10.36905432935963</v>
+        <v>14.50080889208365</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.804062397850126</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>10.45217187635659</v>
       </c>
       <c r="O5">
-        <v>84.97651370471125</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>84.94391654762978</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.689498619112152</v>
+        <v>4.029862400558876</v>
       </c>
       <c r="D6">
-        <v>7.511152850817117</v>
+        <v>7.012713017440768</v>
       </c>
       <c r="E6">
-        <v>16.88569626768058</v>
+        <v>16.6894343109993</v>
       </c>
       <c r="F6">
-        <v>17.98855003126979</v>
+        <v>16.42747228279147</v>
       </c>
       <c r="G6">
-        <v>30.29914056246866</v>
+        <v>26.46760645885804</v>
       </c>
       <c r="H6">
-        <v>3.764320310464914</v>
+        <v>3.617938296906066</v>
       </c>
       <c r="I6">
-        <v>4.338039761538807</v>
+        <v>4.126781382977307</v>
       </c>
       <c r="J6">
-        <v>9.697107290670589</v>
+        <v>9.749527643694989</v>
       </c>
       <c r="K6">
-        <v>16.99261900311053</v>
+        <v>15.37175026491477</v>
       </c>
       <c r="L6">
-        <v>10.33499554153677</v>
+        <v>14.48104225458525</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.760363253874615</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>10.41725202436349</v>
       </c>
       <c r="O6">
-        <v>84.65856980596152</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>84.62689570081547</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.838202728499684</v>
+        <v>4.192502520219012</v>
       </c>
       <c r="D7">
-        <v>7.643275842587081</v>
+        <v>7.109824801117358</v>
       </c>
       <c r="E7">
-        <v>17.28634102674637</v>
+        <v>17.08104409142666</v>
       </c>
       <c r="F7">
-        <v>18.07688637941457</v>
+        <v>16.38304087168835</v>
       </c>
       <c r="G7">
-        <v>30.87822343694834</v>
+        <v>26.96968641864268</v>
       </c>
       <c r="H7">
-        <v>3.991956554093724</v>
+        <v>3.828811754785256</v>
       </c>
       <c r="I7">
-        <v>4.475160159973386</v>
+        <v>4.237042202515817</v>
       </c>
       <c r="J7">
-        <v>9.734570656342994</v>
+        <v>9.706153389687412</v>
       </c>
       <c r="K7">
-        <v>17.17565684291311</v>
+        <v>15.44722345482063</v>
       </c>
       <c r="L7">
-        <v>10.57563484978277</v>
+        <v>14.48394352934422</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.920210168159995</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>10.66424944188294</v>
       </c>
       <c r="O7">
-        <v>86.84819210615383</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>86.80991338005045</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.505968370184011</v>
+        <v>4.915968107815267</v>
       </c>
       <c r="D8">
-        <v>8.207541646377106</v>
+        <v>7.545721312683132</v>
       </c>
       <c r="E8">
-        <v>18.95728286864274</v>
+        <v>18.72586698641804</v>
       </c>
       <c r="F8">
-        <v>18.71927073166287</v>
+        <v>16.47261799187422</v>
       </c>
       <c r="G8">
-        <v>33.65142893489473</v>
+        <v>29.24568575410229</v>
       </c>
       <c r="H8">
-        <v>5.008549117067824</v>
+        <v>4.771466141019653</v>
       </c>
       <c r="I8">
-        <v>5.078022112026105</v>
+        <v>4.722183948550463</v>
       </c>
       <c r="J8">
-        <v>9.968745502064872</v>
+        <v>9.684933548793671</v>
       </c>
       <c r="K8">
-        <v>18.09212273224278</v>
+        <v>15.91655932102852</v>
       </c>
       <c r="L8">
-        <v>11.5788111582691</v>
+        <v>14.56708976696023</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.794536898004051</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>11.69273051544221</v>
       </c>
       <c r="O8">
-        <v>96.1402831772678</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>96.06557913237089</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.841512740704639</v>
+        <v>6.381353622738822</v>
       </c>
       <c r="D9">
-        <v>9.351257691621305</v>
+        <v>8.650680407724666</v>
       </c>
       <c r="E9">
-        <v>21.8944676020078</v>
+        <v>21.64846289998349</v>
       </c>
       <c r="F9">
-        <v>20.94424022594866</v>
+        <v>17.66099045879948</v>
       </c>
       <c r="G9">
-        <v>39.77049268190108</v>
+        <v>34.24608214499607</v>
       </c>
       <c r="H9">
-        <v>7.10283983197611</v>
+        <v>6.709956884371214</v>
       </c>
       <c r="I9">
-        <v>6.275893604440872</v>
+        <v>5.683088973324224</v>
       </c>
       <c r="J9">
-        <v>10.67986833826886</v>
+        <v>10.0024597101908</v>
       </c>
       <c r="K9">
-        <v>20.21873109032789</v>
+        <v>17.18879546109331</v>
       </c>
       <c r="L9">
-        <v>13.3559121263586</v>
+        <v>14.86243257626309</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.3867045896524</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>13.51599368032175</v>
       </c>
       <c r="O9">
-        <v>113.3339254889351</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>113.143378226027</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.876953336035146</v>
+        <v>7.550105073653217</v>
       </c>
       <c r="D10">
-        <v>10.25379593371069</v>
+        <v>9.458751533903154</v>
       </c>
       <c r="E10">
-        <v>24.11920786116888</v>
+        <v>23.86806231338176</v>
       </c>
       <c r="F10">
-        <v>23.40993653097561</v>
+        <v>19.02478876804003</v>
       </c>
       <c r="G10">
-        <v>44.43851422415464</v>
+        <v>38.51470847079785</v>
       </c>
       <c r="H10">
-        <v>8.776121670227905</v>
+        <v>8.24605702650517</v>
       </c>
       <c r="I10">
-        <v>7.194729934405816</v>
+        <v>6.410315903503813</v>
       </c>
       <c r="J10">
-        <v>11.27252651297427</v>
+        <v>9.884667988945141</v>
       </c>
       <c r="K10">
-        <v>21.78222469337955</v>
+        <v>18.01116619001491</v>
       </c>
       <c r="L10">
-        <v>14.72291811481784</v>
+        <v>14.92213477771769</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.39019353745722</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>14.92035576448796</v>
       </c>
       <c r="O10">
-        <v>125.7669379640427</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>125.429282056938</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.551370314187889</v>
+        <v>8.270647622624265</v>
       </c>
       <c r="D11">
-        <v>11.32291791613771</v>
+        <v>10.48073100889127</v>
       </c>
       <c r="E11">
-        <v>27.25589577732674</v>
+        <v>26.97767776544354</v>
       </c>
       <c r="F11">
-        <v>22.26867589243345</v>
+        <v>17.51876711104362</v>
       </c>
       <c r="G11">
-        <v>43.34025086158474</v>
+        <v>38.30020905135581</v>
       </c>
       <c r="H11">
-        <v>9.741732465318789</v>
+        <v>9.157355833383038</v>
       </c>
       <c r="I11">
-        <v>7.614022748412134</v>
+        <v>6.738973593622491</v>
       </c>
       <c r="J11">
-        <v>10.74332233348929</v>
+        <v>8.537235184045823</v>
       </c>
       <c r="K11">
-        <v>21.13718452827056</v>
+        <v>16.95491146352009</v>
       </c>
       <c r="L11">
-        <v>16.62866705307065</v>
+        <v>13.94293551842173</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.36074881566644</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>16.82512548345262</v>
       </c>
       <c r="O11">
-        <v>131.5124916902362</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>131.0813289386215</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.943026321604544</v>
+        <v>8.672293649841528</v>
       </c>
       <c r="D12">
-        <v>12.07182341004421</v>
+        <v>11.22737545999511</v>
       </c>
       <c r="E12">
-        <v>29.4944400536039</v>
+        <v>29.20080449747612</v>
       </c>
       <c r="F12">
-        <v>20.85719087079959</v>
+        <v>16.07195107021073</v>
       </c>
       <c r="G12">
-        <v>41.57143848091923</v>
+        <v>37.14196579845527</v>
       </c>
       <c r="H12">
-        <v>10.48173917644548</v>
+        <v>9.897509944025256</v>
       </c>
       <c r="I12">
-        <v>7.783003443234557</v>
+        <v>6.87229730642134</v>
       </c>
       <c r="J12">
-        <v>10.28031091262008</v>
+        <v>7.651701638330695</v>
       </c>
       <c r="K12">
-        <v>20.36065178580117</v>
+        <v>15.9948277200853</v>
       </c>
       <c r="L12">
-        <v>17.98302404832754</v>
+        <v>13.18616686008837</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.03469606612832</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>18.16779045850742</v>
       </c>
       <c r="O12">
-        <v>133.7321132171644</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>133.2597149311769</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.109064415010833</v>
+        <v>8.825253357697013</v>
       </c>
       <c r="D13">
-        <v>12.62266495474286</v>
+        <v>11.82775075884702</v>
       </c>
       <c r="E13">
-        <v>31.23037783396455</v>
+        <v>30.93891552868447</v>
       </c>
       <c r="F13">
-        <v>18.87145260380639</v>
+        <v>14.36217819645228</v>
       </c>
       <c r="G13">
-        <v>38.82289507351727</v>
+        <v>34.73955908069301</v>
       </c>
       <c r="H13">
-        <v>11.04064960345602</v>
+        <v>10.49993400285399</v>
       </c>
       <c r="I13">
-        <v>7.75220889431426</v>
+        <v>6.85308869060137</v>
       </c>
       <c r="J13">
-        <v>9.580146136379989</v>
+        <v>7.17219491049671</v>
       </c>
       <c r="K13">
-        <v>19.13609101525292</v>
+        <v>14.97354613486626</v>
       </c>
       <c r="L13">
-        <v>19.0319488631478</v>
+        <v>12.51740324706181</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.38105652995441</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>19.19522178246081</v>
       </c>
       <c r="O13">
-        <v>133.2592276749977</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>132.7993683773548</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.123907671645531</v>
+        <v>8.823192056607656</v>
       </c>
       <c r="D14">
-        <v>12.92336500722633</v>
+        <v>12.18815296714538</v>
       </c>
       <c r="E14">
-        <v>32.24339545064461</v>
+        <v>31.9635564174674</v>
       </c>
       <c r="F14">
-        <v>17.16158825012271</v>
+        <v>12.98012924971511</v>
       </c>
       <c r="G14">
-        <v>36.37286730083915</v>
+        <v>32.42917941928456</v>
       </c>
       <c r="H14">
-        <v>11.3867033889244</v>
+        <v>10.89413757854257</v>
       </c>
       <c r="I14">
-        <v>7.640410416678926</v>
+        <v>6.770762254893964</v>
       </c>
       <c r="J14">
-        <v>8.961542001171201</v>
+        <v>7.002593951382462</v>
       </c>
       <c r="K14">
-        <v>18.03800678170026</v>
+        <v>14.20262387537496</v>
       </c>
       <c r="L14">
-        <v>19.64563147151386</v>
+        <v>12.07425759929708</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.75089035019078</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>19.7901190551817</v>
       </c>
       <c r="O14">
-        <v>131.7094610633296</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>131.2818356778849</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.070615894768141</v>
+        <v>8.761650390749187</v>
       </c>
       <c r="D15">
-        <v>12.9495452788909</v>
+        <v>12.23991587725219</v>
       </c>
       <c r="E15">
-        <v>32.38101118893307</v>
+        <v>32.10830306825996</v>
       </c>
       <c r="F15">
-        <v>16.57153156038278</v>
+        <v>12.52811104334789</v>
       </c>
       <c r="G15">
-        <v>35.50826029627404</v>
+        <v>31.55726097324935</v>
       </c>
       <c r="H15">
-        <v>11.40642539059541</v>
+        <v>10.9330199662255</v>
       </c>
       <c r="I15">
-        <v>7.568780858020238</v>
+        <v>6.716883604999516</v>
       </c>
       <c r="J15">
-        <v>8.745876274119698</v>
+        <v>7.029181086464063</v>
       </c>
       <c r="K15">
-        <v>17.64631282432162</v>
+        <v>13.98088681984228</v>
       </c>
       <c r="L15">
-        <v>19.73021044732798</v>
+        <v>11.97125406544894</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.50422566917951</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>19.86836689319515</v>
       </c>
       <c r="O15">
-        <v>130.7609178299836</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>130.3516440218299</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.57442064732208</v>
+        <v>8.194973943379443</v>
       </c>
       <c r="D16">
-        <v>12.50197488830478</v>
+        <v>11.88058812622612</v>
       </c>
       <c r="E16">
-        <v>31.24516999052481</v>
+        <v>31.00475015957327</v>
       </c>
       <c r="F16">
-        <v>15.17676439554134</v>
+        <v>11.63491316268914</v>
       </c>
       <c r="G16">
-        <v>33.41369895547294</v>
+        <v>29.0911300258567</v>
       </c>
       <c r="H16">
-        <v>10.6212549267382</v>
+        <v>10.21340532688562</v>
       </c>
       <c r="I16">
-        <v>7.152752255430994</v>
+        <v>6.395330253837943</v>
       </c>
       <c r="J16">
-        <v>8.413595650754615</v>
+        <v>7.657921790980351</v>
       </c>
       <c r="K16">
-        <v>16.70525217772078</v>
+        <v>13.85192354690759</v>
       </c>
       <c r="L16">
-        <v>19.03608646121185</v>
+        <v>12.12692761915403</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.72697111492486</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>19.15869762068641</v>
       </c>
       <c r="O16">
-        <v>125.3733330736277</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>125.0540519846357</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.184535588408785</v>
+        <v>7.764810552846916</v>
       </c>
       <c r="D17">
-        <v>11.98285172987437</v>
+        <v>11.38716542247146</v>
       </c>
       <c r="E17">
-        <v>29.78914593883082</v>
+        <v>29.56132615986953</v>
       </c>
       <c r="F17">
-        <v>15.17792755568055</v>
+        <v>11.83219653235127</v>
       </c>
       <c r="G17">
-        <v>33.26475933063907</v>
+        <v>28.64994385741723</v>
       </c>
       <c r="H17">
-        <v>9.78743718120327</v>
+        <v>9.401531903365855</v>
       </c>
       <c r="I17">
-        <v>6.89923690817531</v>
+        <v>6.195924816177597</v>
       </c>
       <c r="J17">
-        <v>8.5869832104043</v>
+        <v>8.151673738635431</v>
       </c>
       <c r="K17">
-        <v>16.82057243406447</v>
+        <v>14.16783515226476</v>
       </c>
       <c r="L17">
-        <v>18.14937083287589</v>
+        <v>12.47352987185826</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.48188283449289</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>18.27027361137641</v>
       </c>
       <c r="O17">
-        <v>122.107249180143</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>121.8328253821202</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.858400285559078</v>
+        <v>7.412502699823308</v>
       </c>
       <c r="D18">
-        <v>11.36020076072135</v>
+        <v>10.74921985627215</v>
       </c>
       <c r="E18">
-        <v>27.91187688673238</v>
+        <v>27.68488098111596</v>
       </c>
       <c r="F18">
-        <v>16.43601725518358</v>
+        <v>13.08070244952047</v>
       </c>
       <c r="G18">
-        <v>34.83186743893332</v>
+        <v>29.8521792608611</v>
       </c>
       <c r="H18">
-        <v>8.8876572581809</v>
+        <v>8.492708009137676</v>
       </c>
       <c r="I18">
-        <v>6.754648217798572</v>
+        <v>6.078538567177507</v>
       </c>
       <c r="J18">
-        <v>9.106473670252127</v>
+        <v>8.720628497241897</v>
       </c>
       <c r="K18">
-        <v>17.66774528201197</v>
+        <v>14.95427551658704</v>
       </c>
       <c r="L18">
-        <v>17.00441746304047</v>
+        <v>13.07295894817502</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.72854718797645</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>17.13391833740963</v>
       </c>
       <c r="O18">
-        <v>120.2385932468375</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>119.985907333699</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.585194553796565</v>
+        <v>7.154760559247024</v>
       </c>
       <c r="D19">
-        <v>10.69159181313113</v>
+        <v>10.04230247416825</v>
       </c>
       <c r="E19">
-        <v>25.86509595342395</v>
+        <v>25.63418862989599</v>
       </c>
       <c r="F19">
-        <v>18.48443943678941</v>
+        <v>14.97641943272478</v>
       </c>
       <c r="G19">
-        <v>37.44626833812752</v>
+        <v>32.048249656853</v>
       </c>
       <c r="H19">
-        <v>8.204016431163227</v>
+        <v>7.781101133814304</v>
       </c>
       <c r="I19">
-        <v>6.708917155156753</v>
+        <v>6.03916955005423</v>
       </c>
       <c r="J19">
-        <v>9.805844267882565</v>
+        <v>9.322982180610468</v>
       </c>
       <c r="K19">
-        <v>18.88146867353684</v>
+        <v>15.96740831912346</v>
       </c>
       <c r="L19">
-        <v>15.76732566194953</v>
+        <v>13.7805105313379</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.30326440936395</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>15.91270346188782</v>
       </c>
       <c r="O19">
-        <v>119.6126257111877</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>119.364887949074</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.549653225757064</v>
+        <v>7.217446285010121</v>
       </c>
       <c r="D20">
-        <v>9.991516702612504</v>
+        <v>9.245237758950479</v>
       </c>
       <c r="E20">
-        <v>23.54372680445423</v>
+        <v>23.30316633994071</v>
       </c>
       <c r="F20">
-        <v>22.4810476822139</v>
+        <v>18.42295663066439</v>
       </c>
       <c r="G20">
-        <v>42.8763512478689</v>
+        <v>36.87464375138686</v>
       </c>
       <c r="H20">
-        <v>8.313364689239606</v>
+        <v>7.825607044843859</v>
       </c>
       <c r="I20">
-        <v>6.941134751209652</v>
+        <v>6.215711207905656</v>
       </c>
       <c r="J20">
-        <v>11.03076039797746</v>
+        <v>10.06695826598644</v>
       </c>
       <c r="K20">
-        <v>21.18378346462341</v>
+        <v>17.70020442483153</v>
       </c>
       <c r="L20">
-        <v>14.38152757891322</v>
+        <v>14.84737720459029</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.80004148958932</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>14.56534745200399</v>
       </c>
       <c r="O20">
-        <v>122.4788800046086</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>122.189425402498</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.361544514014762</v>
+        <v>8.159117571864224</v>
       </c>
       <c r="D21">
-        <v>10.54192615148323</v>
+        <v>9.614966523654211</v>
       </c>
       <c r="E21">
-        <v>24.82212962471237</v>
+        <v>24.54086101576264</v>
       </c>
       <c r="F21">
-        <v>25.29254015604066</v>
+        <v>20.07773478965723</v>
       </c>
       <c r="G21">
-        <v>47.34728671971506</v>
+        <v>42.01685755544125</v>
       </c>
       <c r="H21">
-        <v>9.70702039975164</v>
+        <v>9.085420598704859</v>
       </c>
       <c r="I21">
-        <v>7.68339280446463</v>
+        <v>6.784362330223141</v>
       </c>
       <c r="J21">
-        <v>11.75716789533817</v>
+        <v>9.018406601547145</v>
       </c>
       <c r="K21">
-        <v>22.89607812772479</v>
+        <v>18.30982379417584</v>
       </c>
       <c r="L21">
-        <v>15.18041500569197</v>
+        <v>14.8481271241874</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.29697911218206</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>15.41332417671652</v>
       </c>
       <c r="O21">
-        <v>132.1845777020029</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>131.7307044146849</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.958097887240557</v>
+        <v>8.831859239734552</v>
       </c>
       <c r="D22">
-        <v>10.94450747378461</v>
+        <v>9.905991437979299</v>
       </c>
       <c r="E22">
-        <v>25.78162264404583</v>
+        <v>25.47968997664724</v>
       </c>
       <c r="F22">
-        <v>27.21874084233594</v>
+        <v>21.25064253611441</v>
       </c>
       <c r="G22">
-        <v>50.35481069995892</v>
+        <v>45.46938205059377</v>
       </c>
       <c r="H22">
-        <v>10.69922249074581</v>
+        <v>9.976465020668064</v>
       </c>
       <c r="I22">
-        <v>8.201006608157266</v>
+        <v>7.177650660283996</v>
       </c>
       <c r="J22">
-        <v>12.48885366569289</v>
+        <v>8.259841636086136</v>
       </c>
       <c r="K22">
-        <v>24.26729483793999</v>
+        <v>18.73357475534386</v>
       </c>
       <c r="L22">
-        <v>15.77917830841398</v>
+        <v>14.84253617128336</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.29580720592977</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>16.04375065691229</v>
       </c>
       <c r="O22">
-        <v>138.7824686475747</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>138.1743753381345</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.652064229357052</v>
+        <v>8.470255769542931</v>
       </c>
       <c r="D23">
-        <v>10.74311916078287</v>
+        <v>9.77632430968324</v>
       </c>
       <c r="E23">
-        <v>25.27492858714163</v>
+        <v>24.98886248406264</v>
       </c>
       <c r="F23">
-        <v>26.2251120663822</v>
+        <v>20.7166258695684</v>
       </c>
       <c r="G23">
-        <v>48.82484839142363</v>
+        <v>43.55149430970146</v>
       </c>
       <c r="H23">
-        <v>10.1619623708118</v>
+        <v>9.495974329404291</v>
       </c>
       <c r="I23">
-        <v>7.923634417918477</v>
+        <v>6.967956482903113</v>
       </c>
       <c r="J23">
-        <v>12.11720082058951</v>
+        <v>8.838143205470155</v>
       </c>
       <c r="K23">
-        <v>23.58490023986181</v>
+        <v>18.60053511247772</v>
       </c>
       <c r="L23">
-        <v>15.45698592389165</v>
+        <v>14.91221856467415</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.82619946822646</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>15.70291243401263</v>
       </c>
       <c r="O23">
-        <v>135.2281580675698</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>134.709116127987</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.54808950340124</v>
+        <v>7.199622995970653</v>
       </c>
       <c r="D24">
-        <v>9.938046419695349</v>
+        <v>9.186996749142057</v>
       </c>
       <c r="E24">
-        <v>23.32888048410265</v>
+        <v>23.08786313435738</v>
       </c>
       <c r="F24">
-        <v>22.77313471030343</v>
+        <v>18.69737357029834</v>
       </c>
       <c r="G24">
-        <v>43.27966836601841</v>
+        <v>37.21522527870847</v>
       </c>
       <c r="H24">
-        <v>8.304380790370306</v>
+        <v>7.816774822120413</v>
       </c>
       <c r="I24">
-        <v>6.935209287432174</v>
+        <v>6.2089628946347</v>
       </c>
       <c r="J24">
-        <v>11.13708889940093</v>
+        <v>10.16909489196365</v>
       </c>
       <c r="K24">
-        <v>21.39189844553731</v>
+        <v>17.88402406025145</v>
       </c>
       <c r="L24">
-        <v>14.24475410011788</v>
+        <v>14.98042191203955</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.91118026430787</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>14.43053991362868</v>
       </c>
       <c r="O24">
-        <v>122.3276142504292</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>122.0391983761185</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.443997537669816</v>
+        <v>5.9631548883424</v>
       </c>
       <c r="D25">
-        <v>9.006508297817019</v>
+        <v>8.346847388451835</v>
       </c>
       <c r="E25">
-        <v>21.12504525352344</v>
+        <v>20.88506889750381</v>
       </c>
       <c r="F25">
-        <v>20.13528933647869</v>
+        <v>17.18822226514412</v>
       </c>
       <c r="G25">
-        <v>37.85823597719106</v>
+        <v>32.50424425819722</v>
       </c>
       <c r="H25">
-        <v>6.515235928440492</v>
+        <v>6.168646140986127</v>
       </c>
       <c r="I25">
-        <v>5.943650134144172</v>
+        <v>5.420035651595303</v>
       </c>
       <c r="J25">
-        <v>10.42114483405365</v>
+        <v>9.958349283752323</v>
       </c>
       <c r="K25">
-        <v>19.51650269341078</v>
+        <v>16.76381914231326</v>
       </c>
       <c r="L25">
-        <v>12.8962423947712</v>
+        <v>14.73982731068488</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.53781675147686</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>13.04200172489096</v>
       </c>
       <c r="O25">
-        <v>108.7550397314438</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>108.6038824302631</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
